--- a/data/bank.xlsx
+++ b/data/bank.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="simplest" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="446">
   <si>
     <t>利润表</t>
   </si>
@@ -1324,21 +1324,6 @@
     <t>PuerPorfit</t>
   </si>
   <si>
-    <t>汇缴[2021-03]</t>
-  </si>
-  <si>
-    <t>公积金批扣</t>
-  </si>
-  <si>
-    <t>汇缴[2021-02]</t>
-  </si>
-  <si>
-    <t>汇缴[2021-01]</t>
-  </si>
-  <si>
-    <t>汇缴[2020-12]</t>
-  </si>
-  <si>
     <t>3Y+</t>
   </si>
   <si>
@@ -1449,14 +1434,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1490,12 +1474,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF676767"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
@@ -1512,77 +1490,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1594,17 +1511,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1620,12 +1542,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1633,15 +1579,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1709,19 +1687,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1739,13 +1729,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1763,19 +1861,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1785,116 +1871,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1933,15 +1911,6 @@
       <diagonal style="thin">
         <color auto="1"/>
       </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2018,41 +1987,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2067,16 +2006,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2098,6 +2037,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2107,11 +2055,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2123,10 +2092,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2135,137 +2104,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2302,18 +2271,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2323,6 +2286,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2332,18 +2298,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2380,13 +2346,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2401,40 +2367,37 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2773,29 +2736,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="6" t="s">
@@ -2812,13 +2775,13 @@
       <c r="H2" s="6">
         <v>2</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="L2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="40" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2979,19 +2942,19 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33">
         <f>C2-C9</f>
         <v>15</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34">
+      <c r="G10" s="33"/>
+      <c r="H10" s="33">
         <f>H2-H9</f>
         <v>2</v>
       </c>
@@ -3015,11 +2978,11 @@
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="L11" s="34" t="s">
+      <c r="L11" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34">
+      <c r="M11" s="33"/>
+      <c r="N11" s="33">
         <f>N3-N10</f>
         <v>18</v>
       </c>
@@ -3092,19 +3055,19 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34">
+      <c r="B15" s="33"/>
+      <c r="C15" s="33">
         <f>SUM(C12:C14)</f>
         <v>5</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34">
+      <c r="G15" s="33"/>
+      <c r="H15" s="33">
         <f>SUM(H12:H14)</f>
         <v>5</v>
       </c>
@@ -3117,64 +3080,64 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34">
+      <c r="B16" s="33"/>
+      <c r="C16" s="33">
         <f>C10-C15</f>
         <v>10</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34">
+      <c r="G16" s="33"/>
+      <c r="H16" s="33">
         <f>H10-H15</f>
         <v>-3</v>
       </c>
-      <c r="L16" s="34" t="s">
+      <c r="L16" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34">
+      <c r="M16" s="33"/>
+      <c r="N16" s="33">
         <f>SUM(N13:N15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="12:14">
-      <c r="L17" s="34" t="s">
+      <c r="L17" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34">
+      <c r="M17" s="33"/>
+      <c r="N17" s="33">
         <f>N11-N16</f>
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44" t="s">
+      <c r="B19" s="43"/>
+      <c r="C19" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="F19" s="44" t="s">
+      <c r="D19" s="43"/>
+      <c r="F19" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44" t="s">
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="44"/>
-      <c r="L19" s="47" t="s">
+      <c r="J19" s="43"/>
+      <c r="L19" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="6" t="s">
@@ -3189,25 +3152,25 @@
       <c r="D20" s="6">
         <v>0</v>
       </c>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45" t="s">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="45">
+      <c r="J20" s="6">
         <v>4</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="41" t="s">
+      <c r="L20" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="M20" s="41" t="s">
+      <c r="M20" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="N20" s="41" t="s">
+      <c r="N20" s="40" t="s">
         <v>2</v>
       </c>
       <c r="Q20" s="3" t="s">
@@ -3220,15 +3183,15 @@
     <row r="21" spans="1:18">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="44"/>
-      <c r="F21" s="46" t="s">
+      <c r="D21" s="43"/>
+      <c r="F21" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46">
+      <c r="G21" s="44"/>
+      <c r="H21" s="44">
         <v>45</v>
       </c>
       <c r="I21" s="6" t="s">
@@ -3270,13 +3233,13 @@
       <c r="D22" s="6">
         <v>5</v>
       </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="34" t="s">
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="34">
+      <c r="J22" s="33">
         <f>SUM(J20:J21)</f>
         <v>54</v>
       </c>
@@ -3309,10 +3272,10 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="44" t="s">
+      <c r="I23" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="44"/>
+      <c r="J23" s="43"/>
       <c r="L23" s="6" t="s">
         <v>6</v>
       </c>
@@ -3329,27 +3292,27 @@
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="34">
+      <c r="B24" s="33">
         <f>B22+B20</f>
         <v>15</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="33">
         <f>D23+D22+D20</f>
         <v>15</v>
       </c>
-      <c r="F24" s="46" t="s">
+      <c r="F24" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="46" t="s">
+      <c r="G24" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H24" s="44">
         <v>12</v>
       </c>
       <c r="I24" s="6" t="s">
@@ -3376,11 +3339,11 @@
       </c>
     </row>
     <row r="25" spans="6:14">
-      <c r="F25" s="46"/>
-      <c r="G25" s="46" t="s">
+      <c r="F25" s="44"/>
+      <c r="G25" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="46">
+      <c r="H25" s="44">
         <v>12</v>
       </c>
       <c r="I25" s="6" t="s">
@@ -3398,11 +3361,11 @@
       <c r="N25" s="6"/>
     </row>
     <row r="26" spans="6:14">
-      <c r="F26" s="46"/>
-      <c r="G26" s="46" t="s">
+      <c r="F26" s="44"/>
+      <c r="G26" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="46">
+      <c r="H26" s="44">
         <f>H25+H24</f>
         <v>24</v>
       </c>
@@ -3425,10 +3388,10 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="34" t="s">
+      <c r="I27" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="J27" s="34">
+      <c r="J27" s="33">
         <f>SUM(J24:J26)</f>
         <v>15</v>
       </c>
@@ -3441,18 +3404,18 @@
       </c>
     </row>
     <row r="28" spans="6:14">
-      <c r="F28" s="34" t="s">
+      <c r="F28" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34">
+      <c r="G28" s="33"/>
+      <c r="H28" s="33">
         <f>H21+H26</f>
         <v>69</v>
       </c>
-      <c r="I28" s="34" t="s">
+      <c r="I28" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="J28" s="34">
+      <c r="J28" s="33">
         <f>J27+J22</f>
         <v>69</v>
       </c>
@@ -3466,11 +3429,11 @@
       </c>
     </row>
     <row r="29" spans="12:14">
-      <c r="L29" s="34" t="s">
+      <c r="L29" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34">
+      <c r="M29" s="33"/>
+      <c r="N29" s="33">
         <f>N21-N28</f>
         <v>8</v>
       </c>
@@ -3510,42 +3473,42 @@
       </c>
     </row>
     <row r="34" spans="12:14">
-      <c r="L34" s="34" t="s">
+      <c r="L34" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34">
+      <c r="M34" s="33"/>
+      <c r="N34" s="33">
         <f>SUM(N31:N33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="6:14">
-      <c r="F35" s="47" t="s">
+      <c r="F35" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="L35" s="34" t="s">
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="L35" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34">
+      <c r="M35" s="33"/>
+      <c r="N35" s="33">
         <f>N29-N34</f>
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="6:10">
-      <c r="F36" s="44" t="s">
+      <c r="F36" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44" t="s">
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="44"/>
+      <c r="J36" s="43"/>
     </row>
     <row r="37" spans="6:10">
       <c r="F37" s="6"/>
@@ -3559,11 +3522,11 @@
       </c>
     </row>
     <row r="38" spans="6:10">
-      <c r="F38" s="46" t="s">
+      <c r="F38" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46">
+      <c r="G38" s="44"/>
+      <c r="H38" s="44">
         <v>34</v>
       </c>
       <c r="I38" s="6" t="s">
@@ -3574,11 +3537,11 @@
       </c>
     </row>
     <row r="39" spans="6:10">
-      <c r="F39" s="46" t="s">
+      <c r="F39" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46">
+      <c r="G39" s="44"/>
+      <c r="H39" s="44">
         <v>6</v>
       </c>
       <c r="I39" s="6" t="s">
@@ -3593,19 +3556,19 @@
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="44" t="s">
+      <c r="I40" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="J40" s="44"/>
+      <c r="J40" s="43"/>
     </row>
     <row r="41" spans="6:10">
-      <c r="F41" s="46" t="s">
+      <c r="F41" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="46" t="s">
+      <c r="G41" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="H41" s="46">
+      <c r="H41" s="44">
         <v>12</v>
       </c>
       <c r="I41" s="6" t="s">
@@ -3616,11 +3579,11 @@
       </c>
     </row>
     <row r="42" spans="6:10">
-      <c r="F42" s="46"/>
-      <c r="G42" s="46" t="s">
+      <c r="F42" s="44"/>
+      <c r="G42" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="46">
+      <c r="H42" s="44">
         <v>0</v>
       </c>
       <c r="I42" s="6" t="s">
@@ -3631,11 +3594,11 @@
       </c>
     </row>
     <row r="43" spans="6:10">
-      <c r="F43" s="46"/>
-      <c r="G43" s="46" t="s">
+      <c r="F43" s="44"/>
+      <c r="G43" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H43" s="46">
+      <c r="H43" s="44">
         <f>H42+H41</f>
         <v>12</v>
       </c>
@@ -3663,41 +3626,41 @@
       </c>
     </row>
     <row r="45" spans="6:10">
-      <c r="F45" s="34" t="s">
+      <c r="F45" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34">
+      <c r="G45" s="33"/>
+      <c r="H45" s="33">
         <f>H38+H43+H39+H44</f>
         <v>54</v>
       </c>
-      <c r="I45" s="34" t="s">
+      <c r="I45" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="J45" s="34">
+      <c r="J45" s="33">
         <f>J44+J39</f>
         <v>54</v>
       </c>
     </row>
     <row r="48" spans="6:10">
-      <c r="F48" s="47" t="s">
+      <c r="F48" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
     </row>
     <row r="49" spans="6:10">
-      <c r="F49" s="44" t="s">
+      <c r="F49" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44" t="s">
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J49" s="44"/>
+      <c r="J49" s="43"/>
     </row>
     <row r="50" spans="6:10">
       <c r="F50" s="6"/>
@@ -3711,11 +3674,11 @@
       </c>
     </row>
     <row r="51" spans="6:10">
-      <c r="F51" s="46" t="s">
+      <c r="F51" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46">
+      <c r="G51" s="44"/>
+      <c r="H51" s="44">
         <v>59</v>
       </c>
       <c r="I51" s="6" t="s">
@@ -3726,11 +3689,11 @@
       </c>
     </row>
     <row r="52" spans="6:10">
-      <c r="F52" s="46" t="s">
+      <c r="F52" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46">
+      <c r="G52" s="44"/>
+      <c r="H52" s="44">
         <v>11</v>
       </c>
       <c r="I52" s="6" t="s">
@@ -3745,19 +3708,19 @@
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
-      <c r="I53" s="44" t="s">
+      <c r="I53" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="J53" s="44"/>
+      <c r="J53" s="43"/>
     </row>
     <row r="54" spans="6:10">
-      <c r="F54" s="46" t="s">
+      <c r="F54" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="G54" s="46" t="s">
+      <c r="G54" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="H54" s="46">
+      <c r="H54" s="44">
         <v>20</v>
       </c>
       <c r="I54" s="6" t="s">
@@ -3768,11 +3731,11 @@
       </c>
     </row>
     <row r="55" spans="6:10">
-      <c r="F55" s="46"/>
-      <c r="G55" s="46" t="s">
+      <c r="F55" s="44"/>
+      <c r="G55" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H55" s="46">
+      <c r="H55" s="44">
         <v>0</v>
       </c>
       <c r="I55" s="6" t="s">
@@ -3783,11 +3746,11 @@
       </c>
     </row>
     <row r="56" spans="6:10">
-      <c r="F56" s="46"/>
-      <c r="G56" s="46" t="s">
+      <c r="F56" s="44"/>
+      <c r="G56" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H56" s="46">
+      <c r="H56" s="44">
         <f>H55+H54</f>
         <v>20</v>
       </c>
@@ -3815,41 +3778,41 @@
       </c>
     </row>
     <row r="58" spans="6:10">
-      <c r="F58" s="34" t="s">
+      <c r="F58" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34">
+      <c r="G58" s="33"/>
+      <c r="H58" s="33">
         <f>H51+H56+H52+H57</f>
         <v>92</v>
       </c>
-      <c r="I58" s="34" t="s">
+      <c r="I58" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="J58" s="34">
+      <c r="J58" s="33">
         <f>J57+J52</f>
         <v>92</v>
       </c>
     </row>
     <row r="60" spans="6:10">
-      <c r="F60" s="47" t="s">
+      <c r="F60" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="45"/>
     </row>
     <row r="61" spans="6:10">
-      <c r="F61" s="44" t="s">
+      <c r="F61" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="44" t="s">
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J61" s="44"/>
+      <c r="J61" s="43"/>
     </row>
     <row r="62" spans="6:10">
       <c r="F62" s="6"/>
@@ -3863,11 +3826,11 @@
       </c>
     </row>
     <row r="63" spans="6:10">
-      <c r="F63" s="46" t="s">
+      <c r="F63" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="G63" s="46"/>
-      <c r="H63" s="46">
+      <c r="G63" s="44"/>
+      <c r="H63" s="44">
         <v>59</v>
       </c>
       <c r="I63" s="6" t="s">
@@ -3878,11 +3841,11 @@
       </c>
     </row>
     <row r="64" spans="6:10">
-      <c r="F64" s="46" t="s">
+      <c r="F64" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46">
+      <c r="G64" s="44"/>
+      <c r="H64" s="44">
         <v>11</v>
       </c>
       <c r="I64" s="6" t="s">
@@ -3897,19 +3860,19 @@
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
-      <c r="I65" s="44" t="s">
+      <c r="I65" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="J65" s="44"/>
+      <c r="J65" s="43"/>
     </row>
     <row r="66" spans="6:10">
-      <c r="F66" s="46" t="s">
+      <c r="F66" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="G66" s="46" t="s">
+      <c r="G66" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="H66" s="46">
+      <c r="H66" s="44">
         <v>10</v>
       </c>
       <c r="I66" s="6" t="s">
@@ -3920,11 +3883,11 @@
       </c>
     </row>
     <row r="67" spans="6:14">
-      <c r="F67" s="46"/>
-      <c r="G67" s="46" t="s">
+      <c r="F67" s="44"/>
+      <c r="G67" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H67" s="46">
+      <c r="H67" s="44">
         <v>0</v>
       </c>
       <c r="I67" s="6" t="s">
@@ -3933,18 +3896,18 @@
       <c r="J67" s="6">
         <v>20</v>
       </c>
-      <c r="L67" s="47" t="s">
+      <c r="L67" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="M67" s="47"/>
-      <c r="N67" s="47"/>
+      <c r="M67" s="45"/>
+      <c r="N67" s="45"/>
     </row>
     <row r="68" spans="6:14">
-      <c r="F68" s="46"/>
-      <c r="G68" s="46" t="s">
+      <c r="F68" s="44"/>
+      <c r="G68" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H68" s="46">
+      <c r="H68" s="44">
         <f>H67+H66</f>
         <v>10</v>
       </c>
@@ -3954,13 +3917,13 @@
       <c r="J68" s="6">
         <v>8</v>
       </c>
-      <c r="L68" s="41" t="s">
+      <c r="L68" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="M68" s="41" t="s">
+      <c r="M68" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="N68" s="41" t="s">
+      <c r="N68" s="40" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3988,18 +3951,18 @@
       </c>
     </row>
     <row r="70" spans="6:14">
-      <c r="F70" s="34" t="s">
+      <c r="F70" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G70" s="34"/>
-      <c r="H70" s="34">
+      <c r="G70" s="33"/>
+      <c r="H70" s="33">
         <f>H63+H68+H64+H69</f>
         <v>82</v>
       </c>
-      <c r="I70" s="34" t="s">
+      <c r="I70" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="J70" s="34">
+      <c r="J70" s="33">
         <f>J69+J64</f>
         <v>82</v>
       </c>
@@ -4035,13 +3998,13 @@
       <c r="N73" s="6"/>
     </row>
     <row r="74" spans="6:14">
-      <c r="F74" s="47" t="s">
+      <c r="F74" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="G74" s="47"/>
-      <c r="H74" s="47"/>
-      <c r="I74" s="47"/>
-      <c r="J74" s="47"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="45"/>
+      <c r="J74" s="45"/>
       <c r="L74" s="6" t="s">
         <v>9</v>
       </c>
@@ -4052,15 +4015,15 @@
       </c>
     </row>
     <row r="75" spans="6:14">
-      <c r="F75" s="44" t="s">
+      <c r="F75" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G75" s="44"/>
-      <c r="H75" s="44"/>
-      <c r="I75" s="44" t="s">
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J75" s="44"/>
+      <c r="J75" s="43"/>
       <c r="L75" s="6" t="s">
         <v>10</v>
       </c>
@@ -4090,11 +4053,11 @@
       </c>
     </row>
     <row r="77" spans="6:14">
-      <c r="F77" s="46" t="s">
+      <c r="F77" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="G77" s="46"/>
-      <c r="H77" s="46">
+      <c r="G77" s="44"/>
+      <c r="H77" s="44">
         <v>59</v>
       </c>
       <c r="I77" s="6" t="s">
@@ -4103,21 +4066,21 @@
       <c r="J77" s="6">
         <v>25</v>
       </c>
-      <c r="L77" s="34" t="s">
+      <c r="L77" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="M77" s="34"/>
-      <c r="N77" s="34">
+      <c r="M77" s="33"/>
+      <c r="N77" s="33">
         <f>N69-N76</f>
         <v>30</v>
       </c>
     </row>
     <row r="78" spans="6:14">
-      <c r="F78" s="46" t="s">
+      <c r="F78" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="G78" s="46"/>
-      <c r="H78" s="46">
+      <c r="G78" s="44"/>
+      <c r="H78" s="44">
         <v>11</v>
       </c>
       <c r="I78" s="6" t="s">
@@ -4137,10 +4100,10 @@
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
-      <c r="I79" s="44" t="s">
+      <c r="I79" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="J79" s="44"/>
+      <c r="J79" s="43"/>
       <c r="L79" s="6" t="s">
         <v>51</v>
       </c>
@@ -4150,13 +4113,13 @@
       </c>
     </row>
     <row r="80" spans="6:14">
-      <c r="F80" s="46" t="s">
+      <c r="F80" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="G80" s="46" t="s">
+      <c r="G80" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="H80" s="46">
+      <c r="H80" s="44">
         <v>10</v>
       </c>
       <c r="I80" s="6" t="s">
@@ -4174,11 +4137,11 @@
       </c>
     </row>
     <row r="81" spans="6:14">
-      <c r="F81" s="46"/>
-      <c r="G81" s="46" t="s">
+      <c r="F81" s="44"/>
+      <c r="G81" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H81" s="46">
+      <c r="H81" s="44">
         <v>0</v>
       </c>
       <c r="I81" s="6" t="s">
@@ -4196,11 +4159,11 @@
       </c>
     </row>
     <row r="82" spans="6:14">
-      <c r="F82" s="46"/>
-      <c r="G82" s="46" t="s">
+      <c r="F82" s="44"/>
+      <c r="G82" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H82" s="46">
+      <c r="H82" s="44">
         <f>H81+H80</f>
         <v>10</v>
       </c>
@@ -4232,64 +4195,64 @@
         <f>SUM(J80:J82)</f>
         <v>33</v>
       </c>
-      <c r="L83" s="34" t="s">
+      <c r="L83" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="M83" s="34"/>
-      <c r="N83" s="34">
+      <c r="M83" s="33"/>
+      <c r="N83" s="33">
         <f>SUM(N79:N82)</f>
         <v>6</v>
       </c>
     </row>
     <row r="84" spans="6:14">
-      <c r="F84" s="34" t="s">
+      <c r="F84" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G84" s="34"/>
-      <c r="H84" s="34">
+      <c r="G84" s="33"/>
+      <c r="H84" s="33">
         <f>H77+H82+H78+H83</f>
         <v>82</v>
       </c>
-      <c r="I84" s="34" t="s">
+      <c r="I84" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="J84" s="34">
+      <c r="J84" s="33">
         <f>J83+J78</f>
         <v>82</v>
       </c>
-      <c r="L84" s="34" t="s">
+      <c r="L84" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="M84" s="34"/>
-      <c r="N84" s="34">
+      <c r="M84" s="33"/>
+      <c r="N84" s="33">
         <f>N77-N83</f>
         <v>24</v>
       </c>
     </row>
     <row r="86" spans="6:10">
-      <c r="F86" s="47" t="s">
+      <c r="F86" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="G86" s="47"/>
-      <c r="H86" s="47"/>
-      <c r="I86" s="47"/>
-      <c r="J86" s="47"/>
+      <c r="G86" s="45"/>
+      <c r="H86" s="45"/>
+      <c r="I86" s="45"/>
+      <c r="J86" s="45"/>
     </row>
     <row r="87" spans="6:14">
-      <c r="F87" s="44" t="s">
+      <c r="F87" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G87" s="44"/>
-      <c r="H87" s="44"/>
-      <c r="I87" s="44" t="s">
+      <c r="G87" s="43"/>
+      <c r="H87" s="43"/>
+      <c r="I87" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J87" s="44"/>
-      <c r="L87" s="48" t="s">
+      <c r="J87" s="43"/>
+      <c r="L87" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="M87" s="49"/>
-      <c r="N87" s="50"/>
+      <c r="M87" s="47"/>
+      <c r="N87" s="48"/>
     </row>
     <row r="88" spans="6:14">
       <c r="F88" s="6"/>
@@ -4304,18 +4267,18 @@
       <c r="L88" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="M88" s="51">
+      <c r="M88" s="49">
         <f>5+40</f>
         <v>45</v>
       </c>
       <c r="N88" s="6"/>
     </row>
     <row r="89" spans="6:14">
-      <c r="F89" s="46" t="s">
+      <c r="F89" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="G89" s="46"/>
-      <c r="H89" s="46">
+      <c r="G89" s="44"/>
+      <c r="H89" s="44">
         <v>41</v>
       </c>
       <c r="I89" s="6" t="s">
@@ -4324,21 +4287,21 @@
       <c r="J89" s="6">
         <v>0</v>
       </c>
-      <c r="L89" s="46" t="s">
+      <c r="L89" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="M89" s="52">
+      <c r="M89" s="50">
         <f>-20-4</f>
         <v>-24</v>
       </c>
-      <c r="N89" s="46"/>
+      <c r="N89" s="44"/>
     </row>
     <row r="90" spans="6:14">
-      <c r="F90" s="46" t="s">
+      <c r="F90" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="G90" s="46"/>
-      <c r="H90" s="46">
+      <c r="G90" s="44"/>
+      <c r="H90" s="44">
         <v>16</v>
       </c>
       <c r="I90" s="6" t="s">
@@ -4348,39 +4311,39 @@
         <f>SUM(J88:J89)</f>
         <v>23</v>
       </c>
-      <c r="L90" s="46" t="s">
+      <c r="L90" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="M90" s="52">
+      <c r="M90" s="50">
         <v>-10</v>
       </c>
-      <c r="N90" s="46"/>
+      <c r="N90" s="44"/>
     </row>
     <row r="91" spans="6:14">
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
-      <c r="I91" s="44" t="s">
+      <c r="I91" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="J91" s="44"/>
+      <c r="J91" s="43"/>
       <c r="L91" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="M91" s="51">
+      <c r="M91" s="49">
         <f>-2-2</f>
         <v>-4</v>
       </c>
       <c r="N91" s="6"/>
     </row>
     <row r="92" spans="6:14">
-      <c r="F92" s="46" t="s">
+      <c r="F92" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="G92" s="46" t="s">
+      <c r="G92" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="H92" s="46">
+      <c r="H92" s="44">
         <v>10</v>
       </c>
       <c r="I92" s="6" t="s">
@@ -4389,20 +4352,20 @@
       <c r="J92" s="6">
         <v>5</v>
       </c>
-      <c r="L92" s="46" t="s">
+      <c r="L92" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="M92" s="46"/>
-      <c r="N92" s="51">
+      <c r="M92" s="44"/>
+      <c r="N92" s="49">
         <v>-25</v>
       </c>
     </row>
     <row r="93" spans="6:14">
-      <c r="F93" s="46"/>
-      <c r="G93" s="46" t="s">
+      <c r="F93" s="44"/>
+      <c r="G93" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H93" s="46">
+      <c r="H93" s="44">
         <v>0</v>
       </c>
       <c r="I93" s="6" t="s">
@@ -4411,21 +4374,21 @@
       <c r="J93" s="6">
         <v>28</v>
       </c>
-      <c r="L93" s="46" t="s">
+      <c r="L93" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="M93" s="46"/>
-      <c r="N93" s="51">
+      <c r="M93" s="44"/>
+      <c r="N93" s="49">
         <f>SUM(M88:M91)</f>
         <v>7</v>
       </c>
     </row>
     <row r="94" spans="6:14">
-      <c r="F94" s="46"/>
-      <c r="G94" s="46" t="s">
+      <c r="F94" s="44"/>
+      <c r="G94" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H94" s="46">
+      <c r="H94" s="44">
         <f>H93+H92</f>
         <v>10</v>
       </c>
@@ -4435,20 +4398,20 @@
       <c r="J94" s="6">
         <v>24</v>
       </c>
-      <c r="L94" s="46" t="s">
+      <c r="L94" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="M94" s="46"/>
-      <c r="N94" s="51">
+      <c r="M94" s="44"/>
+      <c r="N94" s="49">
         <v>59</v>
       </c>
     </row>
     <row r="95" spans="6:14">
-      <c r="F95" s="46" t="s">
+      <c r="F95" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G95" s="46"/>
-      <c r="H95" s="46">
+      <c r="G95" s="44"/>
+      <c r="H95" s="44">
         <v>2</v>
       </c>
       <c r="I95" s="6"/>
@@ -4457,7 +4420,7 @@
         <v>64</v>
       </c>
       <c r="M95" s="6"/>
-      <c r="N95" s="51">
+      <c r="N95" s="49">
         <f>N94+N93+N92</f>
         <v>41</v>
       </c>
@@ -4479,46 +4442,46 @@
       </c>
     </row>
     <row r="97" spans="6:10">
-      <c r="F97" s="34" t="s">
+      <c r="F97" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G97" s="34"/>
-      <c r="H97" s="34">
+      <c r="G97" s="33"/>
+      <c r="H97" s="33">
         <f>H89+H94+H90+H96+H95</f>
         <v>80</v>
       </c>
-      <c r="I97" s="34" t="s">
+      <c r="I97" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="J97" s="34">
+      <c r="J97" s="33">
         <f>J96+J90</f>
         <v>80</v>
       </c>
     </row>
     <row r="102" spans="6:10">
-      <c r="F102" s="47" t="s">
+      <c r="F102" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="G102" s="47"/>
-      <c r="H102" s="47"/>
-      <c r="I102" s="47"/>
-      <c r="J102" s="47"/>
+      <c r="G102" s="45"/>
+      <c r="H102" s="45"/>
+      <c r="I102" s="45"/>
+      <c r="J102" s="45"/>
     </row>
     <row r="103" spans="6:14">
-      <c r="F103" s="44" t="s">
+      <c r="F103" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G103" s="44"/>
-      <c r="H103" s="44"/>
-      <c r="I103" s="44" t="s">
+      <c r="G103" s="43"/>
+      <c r="H103" s="43"/>
+      <c r="I103" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J103" s="44"/>
-      <c r="L103" s="48" t="s">
+      <c r="J103" s="43"/>
+      <c r="L103" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="M103" s="49"/>
-      <c r="N103" s="50"/>
+      <c r="M103" s="47"/>
+      <c r="N103" s="48"/>
     </row>
     <row r="104" spans="6:14">
       <c r="F104" s="6"/>
@@ -4533,17 +4496,17 @@
       <c r="L104" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="M104" s="51">
+      <c r="M104" s="49">
         <v>50</v>
       </c>
       <c r="N104" s="6"/>
     </row>
     <row r="105" spans="6:14">
-      <c r="F105" s="46" t="s">
+      <c r="F105" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="G105" s="46"/>
-      <c r="H105" s="46">
+      <c r="G105" s="44"/>
+      <c r="H105" s="44">
         <v>41</v>
       </c>
       <c r="I105" s="6" t="s">
@@ -4552,20 +4515,20 @@
       <c r="J105" s="6">
         <v>0</v>
       </c>
-      <c r="L105" s="46" t="s">
+      <c r="L105" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="M105" s="52">
+      <c r="M105" s="50">
         <v>-21</v>
       </c>
-      <c r="N105" s="46"/>
+      <c r="N105" s="44"/>
     </row>
     <row r="106" spans="6:14">
-      <c r="F106" s="46" t="s">
+      <c r="F106" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="G106" s="46"/>
-      <c r="H106" s="46">
+      <c r="G106" s="44"/>
+      <c r="H106" s="44">
         <v>16</v>
       </c>
       <c r="I106" s="6" t="s">
@@ -4575,38 +4538,38 @@
         <f>SUM(J104:J105)</f>
         <v>23</v>
       </c>
-      <c r="L106" s="46" t="s">
+      <c r="L106" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="M106" s="52">
+      <c r="M106" s="50">
         <v>-20</v>
       </c>
-      <c r="N106" s="46"/>
+      <c r="N106" s="44"/>
     </row>
     <row r="107" spans="6:14">
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
-      <c r="I107" s="44" t="s">
+      <c r="I107" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="J107" s="44"/>
+      <c r="J107" s="43"/>
       <c r="L107" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="M107" s="51">
+      <c r="M107" s="49">
         <v>-4</v>
       </c>
       <c r="N107" s="6"/>
     </row>
     <row r="108" spans="6:14">
-      <c r="F108" s="46" t="s">
+      <c r="F108" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="G108" s="46" t="s">
+      <c r="G108" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="H108" s="46">
+      <c r="H108" s="44">
         <v>10</v>
       </c>
       <c r="I108" s="6" t="s">
@@ -4615,20 +4578,20 @@
       <c r="J108" s="6">
         <v>5</v>
       </c>
-      <c r="L108" s="46" t="s">
+      <c r="L108" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="M108" s="46"/>
-      <c r="N108" s="51">
+      <c r="M108" s="44"/>
+      <c r="N108" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="6:14">
-      <c r="F109" s="46"/>
-      <c r="G109" s="46" t="s">
+      <c r="F109" s="44"/>
+      <c r="G109" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H109" s="46">
+      <c r="H109" s="44">
         <v>0</v>
       </c>
       <c r="I109" s="6" t="s">
@@ -4637,21 +4600,21 @@
       <c r="J109" s="6">
         <v>52</v>
       </c>
-      <c r="L109" s="46" t="s">
+      <c r="L109" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="M109" s="46"/>
-      <c r="N109" s="51">
+      <c r="M109" s="44"/>
+      <c r="N109" s="49">
         <f>SUM(M104:M107)</f>
         <v>5</v>
       </c>
     </row>
     <row r="110" spans="6:14">
-      <c r="F110" s="46"/>
-      <c r="G110" s="46" t="s">
+      <c r="F110" s="44"/>
+      <c r="G110" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H110" s="46">
+      <c r="H110" s="44">
         <f>H109+H108</f>
         <v>10</v>
       </c>
@@ -4661,20 +4624,20 @@
       <c r="J110" s="6">
         <v>0</v>
       </c>
-      <c r="L110" s="46" t="s">
+      <c r="L110" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="M110" s="46"/>
-      <c r="N110" s="51">
+      <c r="M110" s="44"/>
+      <c r="N110" s="49">
         <v>41</v>
       </c>
     </row>
     <row r="111" spans="6:14">
-      <c r="F111" s="46" t="s">
+      <c r="F111" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G111" s="46"/>
-      <c r="H111" s="46">
+      <c r="G111" s="44"/>
+      <c r="H111" s="44">
         <v>2</v>
       </c>
       <c r="I111" s="6"/>
@@ -4683,7 +4646,7 @@
         <v>64</v>
       </c>
       <c r="M111" s="6"/>
-      <c r="N111" s="51">
+      <c r="N111" s="49">
         <f>N110+N109+N108</f>
         <v>46</v>
       </c>
@@ -4705,35 +4668,35 @@
       </c>
     </row>
     <row r="113" spans="6:14">
-      <c r="F113" s="34" t="s">
+      <c r="F113" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G113" s="34"/>
-      <c r="H113" s="34">
+      <c r="G113" s="33"/>
+      <c r="H113" s="33">
         <f>H105+H110+H106+H112+H111</f>
         <v>80</v>
       </c>
-      <c r="I113" s="34" t="s">
+      <c r="I113" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="J113" s="34">
+      <c r="J113" s="33">
         <f>J112+J106</f>
         <v>80</v>
       </c>
-      <c r="L113" s="47" t="s">
+      <c r="L113" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="M113" s="47"/>
-      <c r="N113" s="47"/>
+      <c r="M113" s="45"/>
+      <c r="N113" s="45"/>
     </row>
     <row r="114" spans="12:14">
-      <c r="L114" s="41" t="s">
+      <c r="L114" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="M114" s="41" t="s">
+      <c r="M114" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="N114" s="41" t="s">
+      <c r="N114" s="40" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4756,13 +4719,13 @@
       <c r="N116" s="6"/>
     </row>
     <row r="117" spans="6:14">
-      <c r="F117" s="47" t="s">
+      <c r="F117" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="G117" s="47"/>
-      <c r="H117" s="47"/>
-      <c r="I117" s="47"/>
-      <c r="J117" s="47"/>
+      <c r="G117" s="45"/>
+      <c r="H117" s="45"/>
+      <c r="I117" s="45"/>
+      <c r="J117" s="45"/>
       <c r="L117" s="6" t="s">
         <v>6</v>
       </c>
@@ -4770,15 +4733,15 @@
       <c r="N117" s="6"/>
     </row>
     <row r="118" spans="6:14">
-      <c r="F118" s="44" t="s">
+      <c r="F118" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G118" s="44"/>
-      <c r="H118" s="44"/>
-      <c r="I118" s="44" t="s">
+      <c r="G118" s="43"/>
+      <c r="H118" s="43"/>
+      <c r="I118" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J118" s="44"/>
+      <c r="J118" s="43"/>
       <c r="L118" s="6"/>
       <c r="M118" s="6">
         <v>0</v>
@@ -4804,11 +4767,11 @@
       <c r="N119" s="6"/>
     </row>
     <row r="120" spans="6:14">
-      <c r="F120" s="46" t="s">
+      <c r="F120" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="G120" s="46"/>
-      <c r="H120" s="46">
+      <c r="G120" s="44"/>
+      <c r="H120" s="44">
         <f>N111</f>
         <v>46</v>
       </c>
@@ -4828,11 +4791,11 @@
       </c>
     </row>
     <row r="121" spans="6:14">
-      <c r="F121" s="46" t="s">
+      <c r="F121" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="G121" s="46"/>
-      <c r="H121" s="46">
+      <c r="G121" s="44"/>
+      <c r="H121" s="44">
         <v>16</v>
       </c>
       <c r="I121" s="3" t="s">
@@ -4871,34 +4834,34 @@
       </c>
     </row>
     <row r="123" spans="6:14">
-      <c r="F123" s="46" t="s">
+      <c r="F123" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="G123" s="46" t="s">
+      <c r="G123" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="H123" s="46">
+      <c r="H123" s="44">
         <v>10</v>
       </c>
-      <c r="I123" s="44" t="s">
+      <c r="I123" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="J123" s="44"/>
-      <c r="L123" s="34" t="s">
+      <c r="J123" s="43"/>
+      <c r="L123" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="M123" s="34"/>
-      <c r="N123" s="34">
+      <c r="M123" s="33"/>
+      <c r="N123" s="33">
         <f>N115-N122</f>
         <v>20</v>
       </c>
     </row>
     <row r="124" spans="6:14">
-      <c r="F124" s="46"/>
-      <c r="G124" s="46" t="s">
+      <c r="F124" s="44"/>
+      <c r="G124" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H124" s="46">
+      <c r="H124" s="44">
         <v>0</v>
       </c>
       <c r="I124" s="6" t="s">
@@ -4914,11 +4877,11 @@
       <c r="N124" s="6"/>
     </row>
     <row r="125" spans="6:14">
-      <c r="F125" s="46"/>
-      <c r="G125" s="46" t="s">
+      <c r="F125" s="44"/>
+      <c r="G125" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H125" s="46">
+      <c r="H125" s="44">
         <f>H124+H123</f>
         <v>10</v>
       </c>
@@ -4937,11 +4900,11 @@
       </c>
     </row>
     <row r="126" spans="6:14">
-      <c r="F126" s="46" t="s">
+      <c r="F126" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G126" s="46"/>
-      <c r="H126" s="46">
+      <c r="G126" s="44"/>
+      <c r="H126" s="44">
         <v>2</v>
       </c>
       <c r="I126" s="6" t="s">
@@ -4994,60 +4957,60 @@
         <f>SUM(J124:J126)</f>
         <v>66</v>
       </c>
-      <c r="L128" s="34" t="s">
+      <c r="L128" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="M128" s="34"/>
-      <c r="N128" s="34">
+      <c r="M128" s="33"/>
+      <c r="N128" s="33">
         <f>N123-N127</f>
         <v>12</v>
       </c>
     </row>
     <row r="129" spans="6:14">
-      <c r="F129" s="34" t="s">
+      <c r="F129" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G129" s="34"/>
-      <c r="H129" s="34">
+      <c r="G129" s="33"/>
+      <c r="H129" s="33">
         <f>H120+H125+H121+H128+H126+H127</f>
         <v>101</v>
       </c>
-      <c r="I129" s="34" t="s">
+      <c r="I129" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="J129" s="34">
+      <c r="J129" s="33">
         <f>J128+J122</f>
         <v>101</v>
       </c>
-      <c r="L129" s="43" t="s">
+      <c r="L129" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="M129" s="43"/>
-      <c r="N129" s="43">
+      <c r="M129" s="42"/>
+      <c r="N129" s="42">
         <v>3</v>
       </c>
     </row>
     <row r="130" spans="12:14">
-      <c r="L130" s="34" t="s">
+      <c r="L130" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="M130" s="34"/>
-      <c r="N130" s="34">
+      <c r="M130" s="33"/>
+      <c r="N130" s="33">
         <f>N128-N129</f>
         <v>9</v>
       </c>
     </row>
     <row r="131" spans="5:10">
-      <c r="E131" s="48" t="s">
+      <c r="E131" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F131" s="49"/>
-      <c r="G131" s="50"/>
-      <c r="H131" s="48" t="s">
+      <c r="F131" s="47"/>
+      <c r="G131" s="48"/>
+      <c r="H131" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="I131" s="49"/>
-      <c r="J131" s="50"/>
+      <c r="I131" s="47"/>
+      <c r="J131" s="48"/>
     </row>
     <row r="132" spans="5:10">
       <c r="E132" s="6" t="s">
@@ -5057,10 +5020,10 @@
       <c r="G132" s="6">
         <v>46</v>
       </c>
-      <c r="H132" s="46" t="s">
+      <c r="H132" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="I132" s="46"/>
+      <c r="I132" s="44"/>
       <c r="J132" s="6">
         <v>32</v>
       </c>
@@ -5105,11 +5068,11 @@
       <c r="G135" s="6">
         <v>2</v>
       </c>
-      <c r="H135" s="34" t="s">
+      <c r="H135" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I135" s="34"/>
-      <c r="J135" s="34">
+      <c r="I135" s="33"/>
+      <c r="J135" s="33">
         <f>J132+J134</f>
         <v>35</v>
       </c>
@@ -5118,18 +5081,18 @@
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
-      <c r="H136" s="53" t="s">
+      <c r="H136" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="I136" s="55"/>
-      <c r="J136" s="56"/>
+      <c r="I136" s="53"/>
+      <c r="J136" s="54"/>
     </row>
     <row r="137" spans="5:10">
-      <c r="E137" s="34" t="s">
+      <c r="E137" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="F137" s="34"/>
-      <c r="G137" s="34">
+      <c r="F137" s="33"/>
+      <c r="G137" s="33">
         <f>SUM(G132:G135)</f>
         <v>74</v>
       </c>
@@ -5175,37 +5138,37 @@
       </c>
     </row>
     <row r="140" spans="5:10">
-      <c r="E140" s="34" t="s">
+      <c r="E140" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F140" s="34"/>
-      <c r="G140" s="34">
+      <c r="F140" s="33"/>
+      <c r="G140" s="33">
         <f>G138-G139</f>
         <v>27</v>
       </c>
-      <c r="H140" s="34" t="s">
+      <c r="H140" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="I140" s="34"/>
-      <c r="J140" s="34">
+      <c r="I140" s="33"/>
+      <c r="J140" s="33">
         <f>SUM(J137:J139)</f>
         <v>66</v>
       </c>
     </row>
     <row r="141" spans="5:10">
-      <c r="E141" s="33" t="s">
+      <c r="E141" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="F141" s="33"/>
-      <c r="G141" s="33">
+      <c r="F141" s="32"/>
+      <c r="G141" s="32">
         <f>G140+G137</f>
         <v>101</v>
       </c>
-      <c r="H141" s="33" t="s">
+      <c r="H141" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="I141" s="33"/>
-      <c r="J141" s="33">
+      <c r="I141" s="32"/>
+      <c r="J141" s="32">
         <f>J140+J135</f>
         <v>101</v>
       </c>
@@ -5218,26 +5181,26 @@
       <c r="H145" s="7"/>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
-      <c r="L145" s="48" t="s">
+      <c r="L145" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="M145" s="49"/>
-      <c r="N145" s="50"/>
+      <c r="M145" s="47"/>
+      <c r="N145" s="48"/>
     </row>
     <row r="146" spans="6:14">
-      <c r="F146" s="54" t="s">
+      <c r="F146" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="G146" s="54"/>
-      <c r="H146" s="54"/>
-      <c r="I146" s="54" t="s">
+      <c r="G146" s="52"/>
+      <c r="H146" s="52"/>
+      <c r="I146" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="J146" s="54"/>
+      <c r="J146" s="52"/>
       <c r="L146" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="M146" s="51">
+      <c r="M146" s="49">
         <v>50</v>
       </c>
       <c r="N146" s="6"/>
@@ -5252,13 +5215,13 @@
       <c r="J147" s="6">
         <v>32</v>
       </c>
-      <c r="L147" s="46" t="s">
+      <c r="L147" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="M147" s="52">
+      <c r="M147" s="50">
         <v>-21</v>
       </c>
-      <c r="N147" s="46"/>
+      <c r="N147" s="44"/>
     </row>
     <row r="148" spans="6:14">
       <c r="F148" s="6" t="s">
@@ -5274,13 +5237,13 @@
       <c r="J148" s="6">
         <v>0</v>
       </c>
-      <c r="L148" s="46" t="s">
+      <c r="L148" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="M148" s="52">
+      <c r="M148" s="50">
         <v>-20</v>
       </c>
-      <c r="N148" s="46"/>
+      <c r="N148" s="44"/>
     </row>
     <row r="149" spans="6:14">
       <c r="F149" s="6" t="s">
@@ -5299,7 +5262,7 @@
       <c r="L149" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="M149" s="51">
+      <c r="M149" s="49">
         <v>-4</v>
       </c>
       <c r="N149" s="6"/>
@@ -5308,18 +5271,18 @@
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
-      <c r="I150" s="34" t="s">
+      <c r="I150" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="J150" s="34">
+      <c r="J150" s="33">
         <f>J149+J148+J147</f>
         <v>46</v>
       </c>
-      <c r="L150" s="46" t="s">
+      <c r="L150" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="M150" s="46"/>
-      <c r="N150" s="51">
+      <c r="M150" s="44"/>
+      <c r="N150" s="49">
         <v>0</v>
       </c>
     </row>
@@ -5333,15 +5296,15 @@
       <c r="H151" s="6">
         <v>10</v>
       </c>
-      <c r="I151" s="26" t="s">
+      <c r="I151" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J151" s="26"/>
-      <c r="L151" s="46" t="s">
+      <c r="J151" s="25"/>
+      <c r="L151" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="M151" s="46"/>
-      <c r="N151" s="51">
+      <c r="M151" s="44"/>
+      <c r="N151" s="49">
         <f>SUM(M146:M149)</f>
         <v>5</v>
       </c>
@@ -5360,11 +5323,11 @@
       <c r="J152" s="6">
         <v>5</v>
       </c>
-      <c r="L152" s="46" t="s">
+      <c r="L152" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="M152" s="46"/>
-      <c r="N152" s="51">
+      <c r="M152" s="44"/>
+      <c r="N152" s="49">
         <v>41</v>
       </c>
     </row>
@@ -5386,7 +5349,7 @@
         <v>64</v>
       </c>
       <c r="M153" s="6"/>
-      <c r="N153" s="51">
+      <c r="N153" s="49">
         <f>N152+N151+N150</f>
         <v>46</v>
       </c>
@@ -5416,11 +5379,11 @@
       </c>
       <c r="I155" s="6"/>
       <c r="J155" s="6"/>
-      <c r="L155" s="47" t="s">
+      <c r="L155" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="M155" s="47"/>
-      <c r="N155" s="47"/>
+      <c r="M155" s="45"/>
+      <c r="N155" s="45"/>
     </row>
     <row r="156" spans="6:14">
       <c r="F156" s="6" t="s">
@@ -5430,36 +5393,36 @@
       <c r="H156" s="6">
         <v>16</v>
       </c>
-      <c r="I156" s="34" t="s">
+      <c r="I156" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="J156" s="34">
+      <c r="J156" s="33">
         <f>SUM(J152:J155)</f>
         <v>45</v>
       </c>
-      <c r="L156" s="41" t="s">
+      <c r="L156" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="M156" s="41" t="s">
+      <c r="M156" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="N156" s="41" t="s">
+      <c r="N156" s="40" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="157" spans="6:14">
-      <c r="F157" s="33" t="s">
+      <c r="F157" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G157" s="33"/>
-      <c r="H157" s="33">
+      <c r="G157" s="32"/>
+      <c r="H157" s="32">
         <f>H156+H155+H154+H153+H149+H148</f>
         <v>101</v>
       </c>
-      <c r="I157" s="33" t="s">
+      <c r="I157" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="J157" s="33">
+      <c r="J157" s="32">
         <f>J156+J150</f>
         <v>91</v>
       </c>
@@ -5519,15 +5482,15 @@
       <c r="B161" s="3">
         <v>16</v>
       </c>
-      <c r="F161" s="54" t="s">
+      <c r="F161" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="G161" s="54"/>
-      <c r="H161" s="54"/>
-      <c r="I161" s="54" t="s">
+      <c r="G161" s="52"/>
+      <c r="H161" s="52"/>
+      <c r="I161" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="J161" s="54"/>
+      <c r="J161" s="52"/>
       <c r="L161" s="6" t="s">
         <v>49</v>
       </c>
@@ -5623,18 +5586,18 @@
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
-      <c r="I165" s="34" t="s">
+      <c r="I165" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="J165" s="34">
+      <c r="J165" s="33">
         <f>SUM(J162:J164)</f>
         <v>0</v>
       </c>
-      <c r="L165" s="34" t="s">
+      <c r="L165" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="M165" s="34"/>
-      <c r="N165" s="34">
+      <c r="M165" s="33"/>
+      <c r="N165" s="33">
         <f>N157-N164</f>
         <v>-10</v>
       </c>
@@ -5649,10 +5612,10 @@
       <c r="H166" s="6">
         <v>0</v>
       </c>
-      <c r="I166" s="26" t="s">
+      <c r="I166" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J166" s="26"/>
+      <c r="J166" s="25"/>
       <c r="L166" s="6" t="s">
         <v>13</v>
       </c>
@@ -5736,11 +5699,11 @@
       </c>
       <c r="I170" s="6"/>
       <c r="J170" s="6"/>
-      <c r="L170" s="34" t="s">
+      <c r="L170" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="M170" s="34"/>
-      <c r="N170" s="34">
+      <c r="M170" s="33"/>
+      <c r="N170" s="33">
         <f>N165-N169</f>
         <v>-10</v>
       </c>
@@ -5753,42 +5716,42 @@
       <c r="H171" s="6">
         <v>16</v>
       </c>
-      <c r="I171" s="34" t="s">
+      <c r="I171" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="J171" s="34">
+      <c r="J171" s="33">
         <f>SUM(J167:J170)</f>
         <v>45</v>
       </c>
-      <c r="L171" s="43" t="s">
+      <c r="L171" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="M171" s="43"/>
-      <c r="N171" s="43">
+      <c r="M171" s="42"/>
+      <c r="N171" s="42">
         <v>14</v>
       </c>
     </row>
     <row r="172" spans="6:14">
-      <c r="F172" s="33" t="s">
+      <c r="F172" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G172" s="33"/>
-      <c r="H172" s="33">
+      <c r="G172" s="32"/>
+      <c r="H172" s="32">
         <f>H171+H170+H169+H168+H164+H163</f>
         <v>45</v>
       </c>
-      <c r="I172" s="33" t="s">
+      <c r="I172" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="J172" s="33">
+      <c r="J172" s="32">
         <f>J171+J165</f>
         <v>45</v>
       </c>
-      <c r="L172" s="34" t="s">
+      <c r="L172" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="M172" s="34"/>
-      <c r="N172" s="34">
+      <c r="M172" s="33"/>
+      <c r="N172" s="33">
         <f>N170-N171</f>
         <v>-24</v>
       </c>
@@ -5971,13 +5934,13 @@
       </c>
     </row>
     <row r="3" ht="15" spans="2:4">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="40" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6027,7 +5990,7 @@
       <c r="F6">
         <v>12</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="41">
         <f>4+20</f>
         <v>24</v>
       </c>
@@ -6099,11 +6062,11 @@
       </c>
     </row>
     <row r="11" ht="16.5" spans="2:4">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33">
         <f>D4-D10</f>
         <v>80</v>
       </c>
@@ -6253,30 +6216,30 @@
       </c>
     </row>
     <row r="25" ht="16.5" spans="2:4">
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34">
+      <c r="C25" s="33"/>
+      <c r="D25" s="33">
         <f>D11-D24</f>
         <v>54</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="2:4">
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43">
+      <c r="C26" s="42"/>
+      <c r="D26" s="42">
         <v>14</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="2:4">
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34">
+      <c r="C27" s="33"/>
+      <c r="D27" s="33">
         <f>D25-D26</f>
         <v>40</v>
       </c>
@@ -6301,7 +6264,7 @@
     <col min="1" max="1" width="7" style="3" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
     <col min="3" max="3" width="24.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.25" style="36" customWidth="1"/>
+    <col min="4" max="4" width="7.25" style="35" customWidth="1"/>
     <col min="5" max="5" width="9" style="3"/>
     <col min="6" max="6" width="27.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="9" style="3"/>
@@ -6314,24 +6277,24 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:12">
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>98</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="29">
         <v>31070596222.23</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="29">
         <v>26455335152.99</v>
       </c>
     </row>
     <row r="5" spans="3:12">
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>100</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -6340,10 +6303,10 @@
       <c r="J5" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="29">
         <v>30921801316.6</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="29">
         <v>26455335152.99</v>
       </c>
     </row>
@@ -6357,13 +6320,13 @@
       <c r="J6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="29">
         <v>148673987.03</v>
       </c>
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="3:12">
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="31" t="s">
         <v>106</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -6376,7 +6339,7 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="3:12">
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="31" t="s">
         <v>109</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -6385,13 +6348,13 @@
       <c r="J8" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="29">
         <v>120918.6</v>
       </c>
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="3:12">
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>112</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -6400,15 +6363,15 @@
       <c r="J9" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="29">
         <v>9282061270.23</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="29">
         <v>7627698585.34</v>
       </c>
     </row>
     <row r="10" spans="3:12">
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>115</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -6417,15 +6380,15 @@
       <c r="J10" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="29">
         <v>2193920307.99</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10" s="29">
         <v>2044306468.76</v>
       </c>
     </row>
     <row r="11" spans="3:12">
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>118</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -6434,13 +6397,13 @@
       <c r="J11" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="29">
         <v>35507483.16</v>
       </c>
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="3:12">
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>120</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -6449,16 +6412,16 @@
       <c r="J12" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="K12" s="30">
+      <c r="K12" s="29">
         <v>90547.86</v>
       </c>
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="3:12">
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="37"/>
+      <c r="D13" s="36"/>
       <c r="F13" s="6" t="s">
         <v>124</v>
       </c>
@@ -6469,7 +6432,7 @@
       <c r="L13" s="6"/>
     </row>
     <row r="14" spans="3:12">
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>126</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -6482,7 +6445,7 @@
       <c r="L14" s="6"/>
     </row>
     <row r="15" spans="3:12">
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="28" t="s">
         <v>129</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -6495,7 +6458,7 @@
       <c r="L15" s="6"/>
     </row>
     <row r="16" spans="3:12">
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="28" t="s">
         <v>132</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -6508,7 +6471,7 @@
       <c r="L16" s="6"/>
     </row>
     <row r="17" spans="3:12">
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="28" t="s">
         <v>135</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -6521,7 +6484,7 @@
       <c r="L17" s="6"/>
     </row>
     <row r="18" spans="3:12">
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="31" t="s">
         <v>138</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -6530,15 +6493,15 @@
       <c r="J18" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="K18" s="30">
+      <c r="K18" s="29">
         <v>2790747889.49</v>
       </c>
-      <c r="L18" s="30">
+      <c r="L18" s="29">
         <v>2572644755.42</v>
       </c>
     </row>
     <row r="19" spans="3:12">
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>141</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -6547,27 +6510,27 @@
       <c r="J19" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="K19" s="30">
+      <c r="K19" s="29">
         <v>1858132722.71</v>
       </c>
-      <c r="L19" s="30">
+      <c r="L19" s="29">
         <v>1224553444.02</v>
       </c>
     </row>
     <row r="20" spans="3:12">
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="39" t="s">
+      <c r="F20" s="38" t="s">
         <v>145</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="K20" s="30">
+      <c r="K20" s="29">
         <v>2834740716</v>
       </c>
-      <c r="L20" s="30">
+      <c r="L20" s="29">
         <v>2204190581.13</v>
       </c>
     </row>
@@ -6575,16 +6538,16 @@
       <c r="C21" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="38" t="s">
         <v>148</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="K21" s="30">
+      <c r="K21" s="29">
         <v>-429074364.68</v>
       </c>
-      <c r="L21" s="30">
+      <c r="L21" s="29">
         <v>-420975922.49</v>
       </c>
     </row>
@@ -6592,58 +6555,58 @@
       <c r="C22" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="38" t="s">
         <v>151</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="K22" s="30">
+      <c r="K22" s="29">
         <v>-2004032.3</v>
       </c>
-      <c r="L22" s="30">
+      <c r="L22" s="29">
         <v>2979258.5</v>
       </c>
     </row>
     <row r="23" spans="3:12">
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="32" t="s">
         <v>153</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="I23" s="35" t="s">
+      <c r="I23" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="J23" s="28" t="s">
+      <c r="J23" s="27" t="s">
         <v>156</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="25" t="s">
         <v>158</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I24" s="35"/>
-      <c r="J24" s="28" t="s">
+      <c r="I24" s="34"/>
+      <c r="J24" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="K24" s="30">
+      <c r="K24" s="29">
         <v>3010000</v>
       </c>
-      <c r="L24" s="30">
+      <c r="L24" s="29">
         <v>3103250</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="28" t="s">
         <v>161</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -6652,32 +6615,32 @@
       <c r="F25" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="I25" s="35"/>
-      <c r="J25" s="28" t="s">
+      <c r="I25" s="34"/>
+      <c r="J25" s="27" t="s">
         <v>164</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="31" t="s">
         <v>166</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="28" t="s">
+      <c r="I26" s="34"/>
+      <c r="J26" s="27" t="s">
         <v>168</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
     </row>
     <row r="27" spans="3:12">
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="31" t="s">
         <v>169</v>
       </c>
       <c r="F27" s="6" t="s">
@@ -6686,15 +6649,15 @@
       <c r="J27" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="K27" s="30">
+      <c r="K27" s="29">
         <v>21791544952</v>
       </c>
-      <c r="L27" s="30">
+      <c r="L27" s="29">
         <v>18830739817.65</v>
       </c>
     </row>
     <row r="28" spans="3:12">
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="28" t="s">
         <v>172</v>
       </c>
       <c r="F28" s="6" t="s">
@@ -6703,49 +6666,49 @@
       <c r="J28" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="K28" s="30">
+      <c r="K28" s="29">
         <v>32763249.14</v>
       </c>
-      <c r="L28" s="30">
+      <c r="L28" s="29">
         <v>6756532.19</v>
       </c>
     </row>
     <row r="29" spans="3:12">
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="32" t="s">
         <v>176</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="K29" s="30">
+      <c r="K29" s="29">
         <v>391947775.17</v>
       </c>
-      <c r="L29" s="30">
+      <c r="L29" s="29">
         <v>137005880.68</v>
       </c>
     </row>
     <row r="30" spans="3:12">
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="25" t="s">
         <v>179</v>
       </c>
       <c r="J30" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="K30" s="30">
+      <c r="K30" s="29">
         <v>8997287.17</v>
       </c>
-      <c r="L30" s="30">
+      <c r="L30" s="29">
         <v>165718.82</v>
       </c>
     </row>
     <row r="31" spans="3:12">
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="27" t="s">
         <v>181</v>
       </c>
       <c r="F31" s="6" t="s">
@@ -6754,15 +6717,15 @@
       <c r="J31" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="K31" s="30">
+      <c r="K31" s="29">
         <v>21432360425.97</v>
       </c>
-      <c r="L31" s="30">
+      <c r="L31" s="29">
         <v>18700490469.16</v>
       </c>
     </row>
     <row r="32" spans="3:12">
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="27" t="s">
         <v>184</v>
       </c>
       <c r="F32" s="6" t="s">
@@ -6771,15 +6734,15 @@
       <c r="J32" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="K32" s="30">
+      <c r="K32" s="29">
         <v>5467460544.92</v>
       </c>
-      <c r="L32" s="30">
+      <c r="L32" s="29">
         <v>4692039766.99</v>
       </c>
     </row>
     <row r="33" spans="3:12">
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="27" t="s">
         <v>187</v>
       </c>
       <c r="F33" s="6" t="s">
@@ -6788,15 +6751,15 @@
       <c r="J33" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K33" s="30">
+      <c r="K33" s="29">
         <v>15964899881.05</v>
       </c>
-      <c r="L33" s="30">
+      <c r="L33" s="29">
         <v>14008450702.17</v>
       </c>
     </row>
     <row r="34" spans="3:12">
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="27" t="s">
         <v>190</v>
       </c>
       <c r="F34" s="6" t="s">
@@ -6805,15 +6768,15 @@
       <c r="J34" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="K34" s="30">
+      <c r="K34" s="29">
         <v>15136639784.35</v>
       </c>
-      <c r="L34" s="30">
+      <c r="L34" s="29">
         <v>13308079612.88</v>
       </c>
     </row>
     <row r="35" spans="3:12">
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="39" t="s">
         <v>193</v>
       </c>
       <c r="F35" s="6" t="s">
@@ -6822,15 +6785,15 @@
       <c r="J35" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="K35" s="30">
+      <c r="K35" s="29">
         <v>828260096.7</v>
       </c>
-      <c r="L35" s="30">
+      <c r="L35" s="29">
         <v>700371089.29</v>
       </c>
     </row>
     <row r="36" spans="3:12">
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="27" t="s">
         <v>196</v>
       </c>
       <c r="F36" s="6" t="s">
@@ -6843,7 +6806,7 @@
       <c r="L36" s="6"/>
     </row>
     <row r="37" spans="3:12">
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="27" t="s">
         <v>199</v>
       </c>
       <c r="F37" s="6" t="s">
@@ -6860,10 +6823,10 @@
       </c>
     </row>
     <row r="38" spans="3:12">
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="F38" s="32" t="s">
         <v>203</v>
       </c>
       <c r="J38" s="6" t="s">
@@ -6877,10 +6840,10 @@
       </c>
     </row>
     <row r="39" spans="3:12">
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="F39" s="34" t="s">
+      <c r="F39" s="33" t="s">
         <v>206</v>
       </c>
       <c r="J39" s="6" t="s">
@@ -6890,24 +6853,24 @@
       <c r="L39" s="6"/>
     </row>
     <row r="40" spans="3:12">
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="25" t="s">
         <v>209</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="K40" s="30">
+      <c r="K40" s="29">
         <v>15964899881.05</v>
       </c>
-      <c r="L40" s="30">
+      <c r="L40" s="29">
         <v>14008450702.17</v>
       </c>
     </row>
     <row r="41" spans="3:12">
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="31" t="s">
         <v>211</v>
       </c>
       <c r="F41" s="6" t="s">
@@ -6916,15 +6879,15 @@
       <c r="J41" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="K41" s="30">
+      <c r="K41" s="29">
         <v>15136639784.35</v>
       </c>
-      <c r="L41" s="30">
+      <c r="L41" s="29">
         <v>13308079612.88</v>
       </c>
     </row>
     <row r="42" spans="3:12">
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="31" t="s">
         <v>214</v>
       </c>
       <c r="F42" s="6" t="s">
@@ -6933,15 +6896,15 @@
       <c r="J42" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="K42" s="30">
+      <c r="K42" s="29">
         <v>828260096.7</v>
       </c>
-      <c r="L42" s="30">
+      <c r="L42" s="29">
         <v>700371089.29</v>
       </c>
     </row>
     <row r="43" spans="3:6">
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="32" t="s">
         <v>217</v>
       </c>
       <c r="F43" s="6" t="s">
@@ -6949,7 +6912,7 @@
       </c>
     </row>
     <row r="44" spans="3:6">
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="33" t="s">
         <v>219</v>
       </c>
       <c r="F44" s="6" t="s">
@@ -6987,12 +6950,12 @@
       </c>
     </row>
     <row r="51" spans="6:6">
-      <c r="F51" s="34" t="s">
+      <c r="F51" s="33" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="52" spans="6:6">
-      <c r="F52" s="34" t="s">
+      <c r="F52" s="33" t="s">
         <v>228</v>
       </c>
     </row>
@@ -7034,21 +6997,21 @@
     <col min="16" max="16" width="12" style="3" customWidth="1"/>
     <col min="17" max="18" width="18.875" style="3" customWidth="1"/>
     <col min="19" max="20" width="9" style="3"/>
-    <col min="21" max="21" width="33" style="21" customWidth="1"/>
+    <col min="21" max="21" width="33" style="20" customWidth="1"/>
     <col min="22" max="22" width="12.625" style="3" customWidth="1"/>
     <col min="23" max="24" width="18.875" style="3" customWidth="1"/>
     <col min="25" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:24">
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="26" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="25" t="s">
         <v>98</v>
       </c>
       <c r="I3" s="6"/>
@@ -7058,10 +7021,10 @@
         <v>99</v>
       </c>
       <c r="P3" s="6"/>
-      <c r="Q3" s="30">
+      <c r="Q3" s="29">
         <v>31070596222.23</v>
       </c>
-      <c r="R3" s="30">
+      <c r="R3" s="29">
         <v>26455335152.99</v>
       </c>
       <c r="U3" s="5" t="s">
@@ -7072,22 +7035,22 @@
       <c r="X3" s="6"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>230</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="29">
         <v>25185009331.68</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="29">
         <v>22061999850.17</v>
       </c>
-      <c r="G4" s="31"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="6" t="s">
         <v>101</v>
       </c>
@@ -7100,25 +7063,25 @@
       <c r="P4" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="Q4" s="29">
         <v>30921801316.6</v>
       </c>
-      <c r="R4" s="30">
+      <c r="R4" s="29">
         <v>26455335152.99</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>233</v>
       </c>
       <c r="V4" s="6"/>
-      <c r="W4" s="30">
+      <c r="W4" s="29">
         <v>33233870603.65</v>
       </c>
-      <c r="X4" s="30">
+      <c r="X4" s="29">
         <v>28912367684.82</v>
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>161</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -7127,7 +7090,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="27"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="6" t="s">
         <v>104</v>
       </c>
@@ -7140,7 +7103,7 @@
       <c r="P5" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="Q5" s="30">
+      <c r="Q5" s="29">
         <v>148673987.03</v>
       </c>
       <c r="R5" s="6"/>
@@ -7148,29 +7111,29 @@
         <v>236</v>
       </c>
       <c r="V5" s="6"/>
-      <c r="W5" s="30">
+      <c r="W5" s="29">
         <v>2773189099.54</v>
       </c>
       <c r="X5" s="6"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="31" t="s">
         <v>237</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="27"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="6" t="s">
         <v>107</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="29">
         <v>2773189099.54</v>
       </c>
       <c r="K6" s="6"/>
@@ -7188,13 +7151,13 @@
       <c r="X6" s="6"/>
     </row>
     <row r="7" spans="3:24">
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="31" t="s">
         <v>240</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="27"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="6" t="s">
         <v>110</v>
       </c>
@@ -7207,7 +7170,7 @@
       <c r="P7" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="Q7" s="29">
         <v>120918.6</v>
       </c>
       <c r="R7" s="6"/>
@@ -7219,19 +7182,19 @@
       <c r="X7" s="6"/>
     </row>
     <row r="8" spans="3:24">
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>242</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="29">
         <v>296084005</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="29">
         <v>204079117.8</v>
       </c>
-      <c r="G8" s="31"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="6" t="s">
         <v>113</v>
       </c>
@@ -7242,10 +7205,10 @@
         <v>114</v>
       </c>
       <c r="P8" s="6"/>
-      <c r="Q8" s="30">
+      <c r="Q8" s="29">
         <v>9282061270.23</v>
       </c>
-      <c r="R8" s="30">
+      <c r="R8" s="29">
         <v>7627698585.34</v>
       </c>
       <c r="U8" s="5" t="s">
@@ -7256,19 +7219,19 @@
       <c r="X8" s="6"/>
     </row>
     <row r="9" spans="3:24">
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>245</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="29">
         <v>927222.79</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="29">
         <v>17818147.27</v>
       </c>
-      <c r="G9" s="31"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="6" t="s">
         <v>116</v>
       </c>
@@ -7279,10 +7242,10 @@
         <v>117</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="30">
+      <c r="Q9" s="29">
         <v>2193920307.99</v>
       </c>
-      <c r="R9" s="30">
+      <c r="R9" s="29">
         <v>2044306468.76</v>
       </c>
       <c r="U9" s="5" t="s">
@@ -7293,36 +7256,36 @@
       <c r="X9" s="6"/>
     </row>
     <row r="10" spans="3:24">
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>248</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="29">
         <v>4304579299.68</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="29">
         <v>3872870407.89</v>
       </c>
-      <c r="G10" s="31"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="6" t="s">
         <v>85</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="29">
         <v>284748288.89</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="29">
         <v>345280977.68</v>
       </c>
       <c r="O10" s="6" t="s">
         <v>119</v>
       </c>
       <c r="P10" s="6"/>
-      <c r="Q10" s="30">
+      <c r="Q10" s="29">
         <v>35507483.16</v>
       </c>
       <c r="R10" s="6"/>
@@ -7334,30 +7297,30 @@
       <c r="X10" s="6"/>
     </row>
     <row r="11" spans="3:24">
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>252</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="27"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="6" t="s">
         <v>121</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="29">
         <v>3045113586.1</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="29">
         <v>5091386269.55</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>122</v>
       </c>
       <c r="P11" s="6"/>
-      <c r="Q11" s="30">
+      <c r="Q11" s="29">
         <v>90547.86</v>
       </c>
       <c r="R11" s="6"/>
@@ -7369,13 +7332,13 @@
       <c r="X11" s="6"/>
     </row>
     <row r="12" spans="3:24">
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>255</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="27"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="6" t="s">
         <v>124</v>
       </c>
@@ -7392,19 +7355,19 @@
         <v>256</v>
       </c>
       <c r="V12" s="6"/>
-      <c r="W12" s="30">
+      <c r="W12" s="29">
         <v>120698483.4</v>
       </c>
       <c r="X12" s="6"/>
     </row>
     <row r="13" spans="3:24">
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>257</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="27"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="6" t="s">
         <v>127</v>
       </c>
@@ -7425,29 +7388,29 @@
       <c r="X13" s="6"/>
     </row>
     <row r="14" spans="3:24">
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>259</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="29">
         <v>188599147.23</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="29">
         <v>264612813.22</v>
       </c>
-      <c r="G14" s="31"/>
+      <c r="G14" s="30"/>
       <c r="H14" s="6" t="s">
         <v>130</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="29">
         <v>260284491.74</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="29">
         <v>269657755.58</v>
       </c>
       <c r="O14" s="6" t="s">
@@ -7464,23 +7427,23 @@
       <c r="X14" s="6"/>
     </row>
     <row r="15" spans="3:24">
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="28" t="s">
         <v>263</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="27"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="6" t="s">
         <v>133</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="29">
         <v>3311880890.49</v>
       </c>
-      <c r="K15" s="30">
+      <c r="K15" s="29">
         <v>2430093461.38</v>
       </c>
       <c r="O15" s="6" t="s">
@@ -7497,26 +7460,26 @@
       <c r="X15" s="6"/>
     </row>
     <row r="16" spans="3:24">
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="28" t="s">
         <v>266</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="29">
         <v>119574188.82</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="29">
         <v>137968684.11</v>
       </c>
-      <c r="G16" s="31"/>
+      <c r="G16" s="30"/>
       <c r="H16" s="6" t="s">
         <v>136</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="29">
         <v>27383888.89</v>
       </c>
       <c r="K16" s="6"/>
@@ -7532,21 +7495,21 @@
       <c r="V16" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="W16" s="30">
+      <c r="W16" s="29">
         <v>585366816.43</v>
       </c>
-      <c r="X16" s="30">
+      <c r="X16" s="29">
         <v>387671188.51</v>
       </c>
     </row>
     <row r="17" spans="3:24">
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="31" t="s">
         <v>271</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="27"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="6" t="s">
         <v>139</v>
       </c>
@@ -7559,47 +7522,47 @@
       <c r="P17" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="Q17" s="30">
+      <c r="Q17" s="29">
         <v>2790747889.49</v>
       </c>
-      <c r="R17" s="30">
+      <c r="R17" s="29">
         <v>2572644755.42</v>
       </c>
       <c r="U17" s="5" t="s">
         <v>273</v>
       </c>
       <c r="V17" s="6"/>
-      <c r="W17" s="30">
+      <c r="W17" s="29">
         <v>36713125003.02</v>
       </c>
-      <c r="X17" s="30">
+      <c r="X17" s="29">
         <v>29300038873.33</v>
       </c>
     </row>
     <row r="18" spans="3:24">
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="28" t="s">
         <v>274</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="29">
         <v>11836810239.03</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="29">
         <v>9665727593.42</v>
       </c>
-      <c r="G18" s="31"/>
+      <c r="G18" s="30"/>
       <c r="H18" s="6" t="s">
         <v>142</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="29">
         <v>1604688158.14</v>
       </c>
-      <c r="K18" s="30">
+      <c r="K18" s="29">
         <v>1389984092.02</v>
       </c>
       <c r="O18" s="6" t="s">
@@ -7608,20 +7571,20 @@
       <c r="P18" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="Q18" s="30">
+      <c r="Q18" s="29">
         <v>1858132722.71</v>
       </c>
-      <c r="R18" s="30">
+      <c r="R18" s="29">
         <v>1224553444.02</v>
       </c>
       <c r="U18" s="5" t="s">
         <v>278</v>
       </c>
       <c r="V18" s="6"/>
-      <c r="W18" s="30">
+      <c r="W18" s="29">
         <v>3152308925.47</v>
       </c>
-      <c r="X18" s="30">
+      <c r="X18" s="29">
         <v>2707393653.33</v>
       </c>
     </row>
@@ -7632,7 +7595,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="27"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="6" t="s">
         <v>154</v>
       </c>
@@ -7645,17 +7608,17 @@
       <c r="P19" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="Q19" s="30">
+      <c r="Q19" s="29">
         <v>2834740716</v>
       </c>
-      <c r="R19" s="30">
+      <c r="R19" s="29">
         <v>2204190581.13</v>
       </c>
       <c r="U19" s="5" t="s">
         <v>281</v>
       </c>
       <c r="V19" s="6"/>
-      <c r="W19" s="30">
+      <c r="W19" s="29">
         <v>91447500</v>
       </c>
       <c r="X19" s="6"/>
@@ -7667,7 +7630,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="27"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="6" t="s">
         <v>283</v>
       </c>
@@ -7680,33 +7643,33 @@
       <c r="P20" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="Q20" s="30">
+      <c r="Q20" s="29">
         <v>-429074364.68</v>
       </c>
-      <c r="R20" s="30">
+      <c r="R20" s="29">
         <v>-420975922.49</v>
       </c>
       <c r="U20" s="5" t="s">
         <v>285</v>
       </c>
       <c r="V20" s="6"/>
-      <c r="W20" s="30">
+      <c r="W20" s="29">
         <v>3193267094.01</v>
       </c>
       <c r="X20" s="6"/>
     </row>
     <row r="21" spans="3:24">
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="32" t="s">
         <v>153</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="30">
+      <c r="E21" s="29">
         <v>41931583434.23</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="29">
         <v>36225076613.88</v>
       </c>
-      <c r="G21" s="31"/>
+      <c r="G21" s="30"/>
       <c r="H21" s="6" t="s">
         <v>163</v>
       </c>
@@ -7719,10 +7682,10 @@
       <c r="P21" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="Q21" s="30">
+      <c r="Q21" s="29">
         <v>-2004032.3</v>
       </c>
-      <c r="R21" s="30">
+      <c r="R21" s="29">
         <v>2979258.5</v>
       </c>
       <c r="U21" s="5" t="s">
@@ -7733,23 +7696,23 @@
       <c r="X21" s="6"/>
     </row>
     <row r="22" spans="3:24">
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="25" t="s">
         <v>288</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="27"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="6" t="s">
         <v>167</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="N22" s="35" t="s">
+      <c r="N22" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="O22" s="28" t="s">
+      <c r="O22" s="27" t="s">
         <v>156</v>
       </c>
       <c r="P22" s="6"/>
@@ -7759,7 +7722,7 @@
         <v>289</v>
       </c>
       <c r="V22" s="6"/>
-      <c r="W22" s="30">
+      <c r="W22" s="29">
         <v>8214142.13</v>
       </c>
       <c r="X22" s="6"/>
@@ -7771,28 +7734,28 @@
       <c r="D23" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="29">
         <v>90527500</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="27"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="6" t="s">
         <v>170</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="28" t="s">
+      <c r="N23" s="34"/>
+      <c r="O23" s="27" t="s">
         <v>160</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="Q23" s="30">
+      <c r="Q23" s="29">
         <v>3010000</v>
       </c>
-      <c r="R23" s="30">
+      <c r="R23" s="29">
         <v>3103250</v>
       </c>
       <c r="U23" s="5" t="s">
@@ -7803,21 +7766,21 @@
       <c r="X23" s="6"/>
     </row>
     <row r="24" spans="3:24">
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="31" t="s">
         <v>294</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="27"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="6" t="s">
         <v>173</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="28" t="s">
+      <c r="N24" s="34"/>
+      <c r="O24" s="27" t="s">
         <v>164</v>
       </c>
       <c r="P24" s="6"/>
@@ -7827,39 +7790,39 @@
         <v>295</v>
       </c>
       <c r="V24" s="6"/>
-      <c r="W24" s="30">
+      <c r="W24" s="29">
         <v>3135608084.79</v>
       </c>
-      <c r="X24" s="30">
+      <c r="X24" s="29">
         <v>2953919072.54</v>
       </c>
     </row>
     <row r="25" spans="3:24">
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="31" t="s">
         <v>296</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="29">
         <v>50000000</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="29">
         <v>50000000</v>
       </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="33" t="s">
+      <c r="G25" s="30"/>
+      <c r="H25" s="32" t="s">
         <v>176</v>
       </c>
       <c r="I25" s="6"/>
-      <c r="J25" s="30">
+      <c r="J25" s="29">
         <v>11307288403.79</v>
       </c>
-      <c r="K25" s="30">
+      <c r="K25" s="29">
         <v>9526402556.21</v>
       </c>
-      <c r="N25" s="35"/>
-      <c r="O25" s="28" t="s">
+      <c r="N25" s="34"/>
+      <c r="O25" s="27" t="s">
         <v>168</v>
       </c>
       <c r="P25" s="6"/>
@@ -7869,22 +7832,22 @@
         <v>298</v>
       </c>
       <c r="V25" s="6"/>
-      <c r="W25" s="30">
+      <c r="W25" s="29">
         <v>12533350979.21</v>
       </c>
-      <c r="X25" s="30">
+      <c r="X25" s="29">
         <v>10170840319.22</v>
       </c>
     </row>
     <row r="26" spans="3:24">
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="28" t="s">
         <v>299</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="26" t="s">
+      <c r="G26" s="26"/>
+      <c r="H26" s="25" t="s">
         <v>300</v>
       </c>
       <c r="I26" s="6"/>
@@ -7894,10 +7857,10 @@
         <v>171</v>
       </c>
       <c r="P26" s="6"/>
-      <c r="Q26" s="30">
+      <c r="Q26" s="29">
         <v>21791544952</v>
       </c>
-      <c r="R26" s="30">
+      <c r="R26" s="29">
         <v>18830739817.65</v>
       </c>
       <c r="U26" s="5" t="s">
@@ -7906,27 +7869,27 @@
       <c r="V26" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="W26" s="30">
+      <c r="W26" s="29">
         <v>1943903415.49</v>
       </c>
-      <c r="X26" s="30">
+      <c r="X26" s="29">
         <v>1546575218.99</v>
       </c>
     </row>
     <row r="27" spans="3:24">
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="31" t="s">
         <v>303</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="29">
         <v>4000000</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="29">
         <v>4000000.01</v>
       </c>
-      <c r="G27" s="31"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="6" t="s">
         <v>182</v>
       </c>
@@ -7939,31 +7902,31 @@
       <c r="P27" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="Q27" s="30">
+      <c r="Q27" s="29">
         <v>32763249.14</v>
       </c>
-      <c r="R27" s="30">
+      <c r="R27" s="29">
         <v>6756532.19</v>
       </c>
       <c r="U27" s="5" t="s">
         <v>306</v>
       </c>
       <c r="V27" s="6"/>
-      <c r="W27" s="30">
+      <c r="W27" s="29">
         <v>24058100141.1</v>
       </c>
-      <c r="X27" s="30">
+      <c r="X27" s="29">
         <v>17378728264.08</v>
       </c>
     </row>
     <row r="28" spans="3:24">
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="31" t="s">
         <v>307</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="27"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="6" t="s">
         <v>185</v>
       </c>
@@ -7976,37 +7939,37 @@
       <c r="P28" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="Q28" s="30">
+      <c r="Q28" s="29">
         <v>391947775.17</v>
       </c>
-      <c r="R28" s="30">
+      <c r="R28" s="29">
         <v>137005880.68</v>
       </c>
       <c r="U28" s="5" t="s">
         <v>309</v>
       </c>
       <c r="V28" s="6"/>
-      <c r="W28" s="30">
+      <c r="W28" s="29">
         <v>12655024861.92</v>
       </c>
-      <c r="X28" s="30">
+      <c r="X28" s="29">
         <v>11921310609.25</v>
       </c>
     </row>
     <row r="29" spans="3:24">
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="27" t="s">
         <v>310</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="29">
         <v>8523256960.11</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="29">
         <v>6807333231.09</v>
       </c>
-      <c r="G29" s="31"/>
+      <c r="G29" s="30"/>
       <c r="H29" s="6" t="s">
         <v>188</v>
       </c>
@@ -8017,10 +7980,10 @@
         <v>180</v>
       </c>
       <c r="P29" s="6"/>
-      <c r="Q29" s="30">
+      <c r="Q29" s="29">
         <v>8997287.17</v>
       </c>
-      <c r="R29" s="30">
+      <c r="R29" s="29">
         <v>165718.82</v>
       </c>
       <c r="U29" s="5" t="s">
@@ -8031,39 +7994,39 @@
       <c r="X29" s="6"/>
     </row>
     <row r="30" spans="3:24">
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="27" t="s">
         <v>313</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="29">
         <v>456328292.13</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="29">
         <v>392672323.95</v>
       </c>
-      <c r="G30" s="31"/>
+      <c r="G30" s="30"/>
       <c r="H30" s="6" t="s">
         <v>191</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="J30" s="30">
+      <c r="J30" s="29">
         <v>17770000</v>
       </c>
-      <c r="K30" s="30">
+      <c r="K30" s="29">
         <v>17770000</v>
       </c>
       <c r="O30" s="6" t="s">
         <v>183</v>
       </c>
       <c r="P30" s="6"/>
-      <c r="Q30" s="30">
+      <c r="Q30" s="29">
         <v>21432360425.97</v>
       </c>
-      <c r="R30" s="30">
+      <c r="R30" s="29">
         <v>18700490469.16</v>
       </c>
       <c r="U30" s="5" t="s">
@@ -8071,24 +8034,24 @@
       </c>
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
-      <c r="X30" s="30">
+      <c r="X30" s="29">
         <v>10000000</v>
       </c>
     </row>
     <row r="31" spans="3:24">
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="27" t="s">
         <v>317</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="29">
         <v>1725110.46</v>
       </c>
-      <c r="F31" s="30">
+      <c r="F31" s="29">
         <v>2676942.59</v>
       </c>
-      <c r="G31" s="31"/>
+      <c r="G31" s="30"/>
       <c r="H31" s="6" t="s">
         <v>194</v>
       </c>
@@ -8101,31 +8064,31 @@
       <c r="P31" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="Q31" s="30">
+      <c r="Q31" s="29">
         <v>5467460544.92</v>
       </c>
-      <c r="R31" s="30">
+      <c r="R31" s="29">
         <v>4692039766.99</v>
       </c>
       <c r="U31" s="5" t="s">
         <v>320</v>
       </c>
       <c r="V31" s="6"/>
-      <c r="W31" s="30">
+      <c r="W31" s="29">
         <v>3010000</v>
       </c>
-      <c r="X31" s="30">
+      <c r="X31" s="29">
         <v>4129000</v>
       </c>
     </row>
     <row r="32" ht="33" spans="3:24">
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="27" t="s">
         <v>321</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="27"/>
+      <c r="G32" s="26"/>
       <c r="H32" s="6" t="s">
         <v>197</v>
       </c>
@@ -8136,10 +8099,10 @@
         <v>189</v>
       </c>
       <c r="P32" s="6"/>
-      <c r="Q32" s="30">
+      <c r="Q32" s="29">
         <v>15964899881.05</v>
       </c>
-      <c r="R32" s="30">
+      <c r="R32" s="29">
         <v>14008450702.17</v>
       </c>
       <c r="U32" s="5" t="s">
@@ -8147,18 +8110,18 @@
       </c>
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
-      <c r="X32" s="30">
+      <c r="X32" s="29">
         <v>79000</v>
       </c>
     </row>
     <row r="33" ht="33" spans="3:24">
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="27" t="s">
         <v>323</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="27"/>
+      <c r="G33" s="26"/>
       <c r="H33" s="6" t="s">
         <v>200</v>
       </c>
@@ -8169,10 +8132,10 @@
         <v>192</v>
       </c>
       <c r="P33" s="6"/>
-      <c r="Q33" s="30">
+      <c r="Q33" s="29">
         <v>15136639784.35</v>
       </c>
-      <c r="R33" s="30">
+      <c r="R33" s="29">
         <v>13308079612.88</v>
       </c>
       <c r="U33" s="5" t="s">
@@ -8183,31 +8146,31 @@
       <c r="X33" s="6"/>
     </row>
     <row r="34" spans="3:24">
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="27" t="s">
         <v>325</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="33" t="s">
+      <c r="G34" s="26"/>
+      <c r="H34" s="32" t="s">
         <v>203</v>
       </c>
       <c r="I34" s="6"/>
-      <c r="J34" s="30">
+      <c r="J34" s="29">
         <v>17770000</v>
       </c>
-      <c r="K34" s="30">
+      <c r="K34" s="29">
         <v>17770000</v>
       </c>
       <c r="O34" s="6" t="s">
         <v>195</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="Q34" s="30">
+      <c r="Q34" s="29">
         <v>828260096.7</v>
       </c>
-      <c r="R34" s="30">
+      <c r="R34" s="29">
         <v>700371089.29</v>
       </c>
       <c r="U34" s="5" t="s">
@@ -8216,35 +8179,35 @@
       <c r="V34" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="W34" s="30">
+      <c r="W34" s="29">
         <v>756386234.64</v>
       </c>
-      <c r="X34" s="30">
+      <c r="X34" s="29">
         <v>340299568</v>
       </c>
     </row>
     <row r="35" spans="3:24">
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="27" t="s">
         <v>328</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="29">
         <v>3563308110.51</v>
       </c>
-      <c r="F35" s="30">
+      <c r="F35" s="29">
         <v>862615899.2</v>
       </c>
-      <c r="G35" s="31"/>
-      <c r="H35" s="34" t="s">
+      <c r="G35" s="30"/>
+      <c r="H35" s="33" t="s">
         <v>206</v>
       </c>
       <c r="I35" s="6"/>
-      <c r="J35" s="30">
+      <c r="J35" s="29">
         <v>11325058403.79</v>
       </c>
-      <c r="K35" s="30">
+      <c r="K35" s="29">
         <v>9544172556.21</v>
       </c>
       <c r="O35" s="6" t="s">
@@ -8257,22 +8220,22 @@
         <v>330</v>
       </c>
       <c r="V35" s="6"/>
-      <c r="W35" s="30">
+      <c r="W35" s="29">
         <v>759396234.64</v>
       </c>
-      <c r="X35" s="30">
+      <c r="X35" s="29">
         <v>354507568</v>
       </c>
     </row>
     <row r="36" ht="33" spans="3:24">
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="27" t="s">
         <v>331</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="26" t="s">
+      <c r="G36" s="26"/>
+      <c r="H36" s="25" t="s">
         <v>209</v>
       </c>
       <c r="I36" s="6"/>
@@ -8292,31 +8255,31 @@
         <v>332</v>
       </c>
       <c r="V36" s="6"/>
-      <c r="W36" s="30">
+      <c r="W36" s="29">
         <v>5405740026.23</v>
       </c>
-      <c r="X36" s="30">
+      <c r="X36" s="29">
         <v>4211900807.91</v>
       </c>
     </row>
     <row r="37" spans="3:24">
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="27" t="s">
         <v>333</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="27"/>
+      <c r="G37" s="26"/>
       <c r="H37" s="6" t="s">
         <v>212</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="J37" s="30">
+      <c r="J37" s="29">
         <v>1038180000</v>
       </c>
-      <c r="K37" s="30">
+      <c r="K37" s="29">
         <v>1038180000</v>
       </c>
       <c r="O37" s="6" t="s">
@@ -8337,29 +8300,29 @@
       <c r="X37" s="6"/>
     </row>
     <row r="38" spans="3:24">
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="27" t="s">
         <v>336</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="29">
         <v>8048744.96</v>
       </c>
-      <c r="F38" s="30">
+      <c r="F38" s="29">
         <v>10177029.43</v>
       </c>
-      <c r="G38" s="31"/>
+      <c r="G38" s="30"/>
       <c r="H38" s="6" t="s">
         <v>215</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="J38" s="30">
+      <c r="J38" s="29">
         <v>1374964415.72</v>
       </c>
-      <c r="K38" s="30">
+      <c r="K38" s="29">
         <v>1374964415.72</v>
       </c>
       <c r="O38" s="6" t="s">
@@ -8376,19 +8339,19 @@
       <c r="X38" s="6"/>
     </row>
     <row r="39" ht="33" spans="3:24">
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="31" t="s">
         <v>340</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="E39" s="30">
+      <c r="E39" s="29">
         <v>825372524.65</v>
       </c>
-      <c r="F39" s="30">
+      <c r="F39" s="29">
         <v>643656913.32</v>
       </c>
-      <c r="G39" s="31"/>
+      <c r="G39" s="30"/>
       <c r="H39" s="6" t="s">
         <v>218</v>
       </c>
@@ -8399,10 +8362,10 @@
         <v>210</v>
       </c>
       <c r="P39" s="6"/>
-      <c r="Q39" s="30">
+      <c r="Q39" s="29">
         <v>15964899881.05</v>
       </c>
-      <c r="R39" s="30">
+      <c r="R39" s="29">
         <v>14008450702.17</v>
       </c>
       <c r="U39" s="5" t="s">
@@ -8416,13 +8379,13 @@
       <c r="B40" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="31" t="s">
         <v>344</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="27"/>
+      <c r="G40" s="26"/>
       <c r="H40" s="6" t="s">
         <v>220</v>
       </c>
@@ -8433,10 +8396,10 @@
         <v>213</v>
       </c>
       <c r="P40" s="6"/>
-      <c r="Q40" s="30">
+      <c r="Q40" s="29">
         <v>15136639784.35</v>
       </c>
-      <c r="R40" s="30">
+      <c r="R40" s="29">
         <v>13308079612.88</v>
       </c>
       <c r="U40" s="5" t="s">
@@ -8445,77 +8408,77 @@
       <c r="V40" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="W40" s="30">
+      <c r="W40" s="29">
         <v>692967608.36</v>
       </c>
-      <c r="X40" s="30">
+      <c r="X40" s="29">
         <v>342083058.36</v>
       </c>
     </row>
     <row r="41" spans="3:24">
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="32" t="s">
         <v>217</v>
       </c>
       <c r="D41" s="6"/>
-      <c r="E41" s="30">
+      <c r="E41" s="29">
         <v>13522567242.82</v>
       </c>
-      <c r="F41" s="30">
+      <c r="F41" s="29">
         <v>8773132339.58</v>
       </c>
-      <c r="G41" s="31"/>
+      <c r="G41" s="30"/>
       <c r="H41" s="6" t="s">
         <v>221</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="J41" s="30">
+      <c r="J41" s="29">
         <v>4220803927.18</v>
       </c>
-      <c r="K41" s="30">
+      <c r="K41" s="29">
         <v>3036434460.46</v>
       </c>
       <c r="O41" s="6" t="s">
         <v>216</v>
       </c>
       <c r="P41" s="6"/>
-      <c r="Q41" s="30">
+      <c r="Q41" s="29">
         <v>828260096.7</v>
       </c>
-      <c r="R41" s="30">
+      <c r="R41" s="29">
         <v>700371089.29</v>
       </c>
       <c r="U41" s="5" t="s">
         <v>348</v>
       </c>
       <c r="V41" s="6"/>
-      <c r="W41" s="30">
+      <c r="W41" s="29">
         <v>6098707634.59</v>
       </c>
-      <c r="X41" s="30">
+      <c r="X41" s="29">
         <v>4553983866.27</v>
       </c>
     </row>
     <row r="42" spans="3:24">
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="33" t="s">
         <v>219</v>
       </c>
       <c r="D42" s="6"/>
-      <c r="E42" s="30">
+      <c r="E42" s="29">
         <v>55454150677.05</v>
       </c>
-      <c r="F42" s="30">
+      <c r="F42" s="29">
         <v>44998208953.46</v>
       </c>
-      <c r="G42" s="31"/>
+      <c r="G42" s="30"/>
       <c r="H42" s="6" t="s">
         <v>222</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="J42" s="30">
+      <c r="J42" s="29">
         <v>13296286.27</v>
       </c>
       <c r="K42" s="6"/>
@@ -8523,10 +8486,10 @@
         <v>350</v>
       </c>
       <c r="V42" s="6"/>
-      <c r="W42" s="30">
+      <c r="W42" s="29">
         <v>-5339311399.95</v>
       </c>
-      <c r="X42" s="30">
+      <c r="X42" s="29">
         <v>-4199476298.27</v>
       </c>
     </row>
@@ -8537,10 +8500,10 @@
       <c r="I43" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="J43" s="30">
+      <c r="J43" s="29">
         <v>35974971858.64</v>
       </c>
-      <c r="K43" s="30">
+      <c r="K43" s="29">
         <v>28700075247.5</v>
       </c>
       <c r="U43" s="5" t="s">
@@ -8561,10 +8524,10 @@
         <v>353</v>
       </c>
       <c r="V44" s="6"/>
-      <c r="W44" s="30">
+      <c r="W44" s="29">
         <v>6000000</v>
       </c>
-      <c r="X44" s="30">
+      <c r="X44" s="29">
         <v>392000000</v>
       </c>
     </row>
@@ -8573,20 +8536,20 @@
         <v>225</v>
       </c>
       <c r="I45" s="6"/>
-      <c r="J45" s="30">
+      <c r="J45" s="29">
         <v>42622216487.81</v>
       </c>
-      <c r="K45" s="30">
+      <c r="K45" s="29">
         <v>34149654123.68</v>
       </c>
       <c r="U45" s="5" t="s">
         <v>354</v>
       </c>
       <c r="V45" s="6"/>
-      <c r="W45" s="30">
+      <c r="W45" s="29">
         <v>6000000</v>
       </c>
-      <c r="X45" s="30">
+      <c r="X45" s="29">
         <v>392000000</v>
       </c>
     </row>
@@ -8595,10 +8558,10 @@
         <v>226</v>
       </c>
       <c r="I46" s="6"/>
-      <c r="J46" s="30">
+      <c r="J46" s="29">
         <v>1506875785.45</v>
       </c>
-      <c r="K46" s="30">
+      <c r="K46" s="29">
         <v>1304382273.57</v>
       </c>
       <c r="U46" s="5" t="s">
@@ -8609,14 +8572,14 @@
       <c r="X46" s="6"/>
     </row>
     <row r="47" spans="8:24">
-      <c r="H47" s="34" t="s">
+      <c r="H47" s="33" t="s">
         <v>227</v>
       </c>
       <c r="I47" s="6"/>
-      <c r="J47" s="30">
+      <c r="J47" s="29">
         <v>44129092273.26</v>
       </c>
-      <c r="K47" s="30">
+      <c r="K47" s="29">
         <v>35454036397.25</v>
       </c>
       <c r="U47" s="5" t="s">
@@ -8627,14 +8590,14 @@
       <c r="X47" s="6"/>
     </row>
     <row r="48" spans="8:24">
-      <c r="H48" s="34" t="s">
+      <c r="H48" s="33" t="s">
         <v>357</v>
       </c>
       <c r="I48" s="6"/>
-      <c r="J48" s="30">
+      <c r="J48" s="29">
         <v>55454150677.05</v>
       </c>
-      <c r="K48" s="30">
+      <c r="K48" s="29">
         <v>44998208953.46</v>
       </c>
       <c r="U48" s="5" t="s">
@@ -8643,10 +8606,10 @@
       <c r="V48" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="W48" s="30">
+      <c r="W48" s="29">
         <v>17474.78</v>
       </c>
-      <c r="X48" s="30">
+      <c r="X48" s="29">
         <v>89497.15</v>
       </c>
     </row>
@@ -8655,10 +8618,10 @@
         <v>360</v>
       </c>
       <c r="V49" s="6"/>
-      <c r="W49" s="30">
+      <c r="W49" s="29">
         <v>6017474.78</v>
       </c>
-      <c r="X49" s="30">
+      <c r="X49" s="29">
         <v>392089497.15</v>
       </c>
     </row>
@@ -8675,10 +8638,10 @@
         <v>362</v>
       </c>
       <c r="V51" s="6"/>
-      <c r="W51" s="30">
+      <c r="W51" s="29">
         <v>7391988549.25</v>
       </c>
-      <c r="X51" s="30">
+      <c r="X51" s="29">
         <v>4306614120</v>
       </c>
     </row>
@@ -8687,10 +8650,10 @@
         <v>363</v>
       </c>
       <c r="V52" s="6"/>
-      <c r="W52" s="30">
+      <c r="W52" s="29">
         <v>631766584.82</v>
       </c>
-      <c r="X52" s="30">
+      <c r="X52" s="29">
         <v>200188455.98</v>
       </c>
     </row>
@@ -8707,10 +8670,10 @@
         <v>365</v>
       </c>
       <c r="V54" s="6"/>
-      <c r="W54" s="30">
+      <c r="W54" s="29">
         <v>7391988549.25</v>
       </c>
-      <c r="X54" s="30">
+      <c r="X54" s="29">
         <v>4306614120</v>
       </c>
     </row>
@@ -8719,10 +8682,10 @@
         <v>366</v>
       </c>
       <c r="V55" s="6"/>
-      <c r="W55" s="30">
+      <c r="W55" s="29">
         <v>-7385971074.47</v>
       </c>
-      <c r="X55" s="30">
+      <c r="X55" s="29">
         <v>-3914524622.85</v>
       </c>
     </row>
@@ -8739,10 +8702,10 @@
         <v>368</v>
       </c>
       <c r="V57" s="6"/>
-      <c r="W57" s="30">
+      <c r="W57" s="29">
         <v>-70257612.5</v>
       </c>
-      <c r="X57" s="30">
+      <c r="X57" s="29">
         <v>3807309688.13</v>
       </c>
     </row>
@@ -8751,10 +8714,10 @@
         <v>369</v>
       </c>
       <c r="V58" s="6"/>
-      <c r="W58" s="30">
+      <c r="W58" s="29">
         <v>22061999850.17</v>
       </c>
-      <c r="X58" s="30">
+      <c r="X58" s="29">
         <v>18254690162.04</v>
       </c>
     </row>
@@ -8763,10 +8726,10 @@
         <v>370</v>
       </c>
       <c r="V59" s="6"/>
-      <c r="W59" s="30">
+      <c r="W59" s="29">
         <v>21991742237.67</v>
       </c>
-      <c r="X59" s="30">
+      <c r="X59" s="29">
         <v>22061999850.17</v>
       </c>
     </row>
@@ -8791,7 +8754,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="21"/>
+    <col min="1" max="1" width="9" style="20"/>
     <col min="2" max="2" width="11.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="38.75" style="3" customWidth="1"/>
     <col min="4" max="9" width="9" style="3"/>
@@ -8860,7 +8823,7 @@
       </c>
     </row>
     <row r="8" ht="49.5" spans="1:11">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>385</v>
       </c>
       <c r="B8" s="6"/>
@@ -8876,15 +8839,15 @@
       </c>
     </row>
     <row r="9" ht="33" spans="1:3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="6"/>
       <c r="C9" s="5" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="24"/>
-      <c r="C10" s="21"/>
+      <c r="A10" s="23"/>
+      <c r="C10" s="20"/>
     </row>
     <row r="11" spans="4:8">
       <c r="D11" s="6"/>
@@ -8900,7 +8863,7 @@
       </c>
     </row>
     <row r="12" spans="4:8">
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>393</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -8917,7 +8880,7 @@
       </c>
     </row>
     <row r="13" spans="4:8">
-      <c r="D13" s="25"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="6" t="s">
         <v>398</v>
       </c>
@@ -8930,7 +8893,7 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="4:8">
-      <c r="D14" s="23"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="6" t="s">
         <v>400</v>
       </c>
@@ -9073,344 +9036,344 @@
       </c>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="19"/>
-      <c r="D14" s="19" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18" t="s">
         <v>403</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <v>0</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="19"/>
-      <c r="D15" s="19" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18" t="s">
         <v>404</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>0.0845</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="3:7">
-      <c r="C16" s="19"/>
-      <c r="D16" s="19" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="18" t="s">
         <v>407</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="18" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="19">
+      <c r="C17" s="18">
         <v>0</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="18">
         <v>1000</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="18">
         <f t="shared" ref="E17:E21" si="0">$D$17*$E$14</f>
         <v>0</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19">
+      <c r="F17" s="18"/>
+      <c r="G17" s="18">
         <f>D17</f>
         <v>1000</v>
       </c>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="19">
+      <c r="C18" s="18">
         <v>1</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="18">
         <v>0</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="18">
         <f t="shared" ref="F18:F22" si="1">$E$15*G17</f>
         <v>84.5</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="18">
         <f t="shared" ref="G18:G22" si="2">G17+F18-E18</f>
         <v>1084.5</v>
       </c>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="19">
+      <c r="C19" s="18">
         <v>2</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="18">
         <v>0</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="18">
         <f t="shared" si="1"/>
         <v>91.64025</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="18">
         <f t="shared" si="2"/>
         <v>1176.14025</v>
       </c>
     </row>
     <row r="20" spans="3:7">
-      <c r="C20" s="19">
+      <c r="C20" s="18">
         <v>3</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="18">
         <v>0</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="18">
         <f t="shared" si="1"/>
         <v>99.383851125</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="18">
         <f t="shared" si="2"/>
         <v>1275.524101125</v>
       </c>
     </row>
     <row r="21" spans="3:7">
-      <c r="C21" s="19">
+      <c r="C21" s="18">
         <v>4</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="18">
         <v>0</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="18">
         <f t="shared" si="1"/>
         <v>107.781786545062</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="18">
         <f t="shared" si="2"/>
         <v>1383.30588767006</v>
       </c>
     </row>
     <row r="22" spans="3:7">
-      <c r="C22" s="19">
+      <c r="C22" s="18">
         <v>5</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="18">
         <v>0</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="18">
         <v>1500</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="18">
         <f t="shared" si="1"/>
         <v>116.88934750812</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="18">
         <f t="shared" si="2"/>
         <v>0.195235178182656</v>
       </c>
     </row>
     <row r="23" spans="3:7">
-      <c r="C23" s="19"/>
-      <c r="D23" s="19">
+      <c r="C23" s="18"/>
+      <c r="D23" s="18">
         <f t="shared" ref="D23:G23" si="3">SUM(D17:D22)</f>
         <v>1000</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="18">
         <f t="shared" si="3"/>
         <v>1500</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="18">
         <f t="shared" si="3"/>
         <v>500.195235178183</v>
       </c>
-      <c r="G23" s="19"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="25" spans="3:7">
-      <c r="C25" s="19"/>
-      <c r="D25" s="19" t="s">
+      <c r="C25" s="18"/>
+      <c r="D25" s="18" t="s">
         <v>403</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="19">
         <v>0.048</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="18" t="s">
         <v>409</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="18">
         <v>30000</v>
       </c>
     </row>
     <row r="26" spans="3:7">
-      <c r="C26" s="19"/>
-      <c r="D26" s="19" t="s">
+      <c r="C26" s="18"/>
+      <c r="D26" s="18" t="s">
         <v>404</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="19">
         <v>0.090955</v>
       </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="3:7">
-      <c r="C27" s="19"/>
-      <c r="D27" s="19" t="s">
+      <c r="C27" s="18"/>
+      <c r="D27" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="18" t="s">
         <v>407</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="18" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="28" spans="3:7">
-      <c r="C28" s="19">
+      <c r="C28" s="18">
         <v>0</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="18">
         <v>25000</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="18">
         <f t="shared" ref="E28:E33" si="4">$E$25*$G$25</f>
         <v>1440</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19">
+      <c r="F28" s="18"/>
+      <c r="G28" s="18">
         <f>D28</f>
         <v>25000</v>
       </c>
     </row>
     <row r="29" spans="3:7">
-      <c r="C29" s="19">
+      <c r="C29" s="18">
         <v>1</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="18">
         <v>0</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="18">
         <f t="shared" si="4"/>
         <v>1440</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="18">
         <f t="shared" ref="F29:F33" si="5">$E$26*G28</f>
         <v>2273.875</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="18">
         <f t="shared" ref="G29:G33" si="6">G28+F29-E29</f>
         <v>25833.875</v>
       </c>
     </row>
     <row r="30" spans="3:7">
-      <c r="C30" s="19">
+      <c r="C30" s="18">
         <v>2</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="18">
         <v>0</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="18">
         <f t="shared" si="4"/>
         <v>1440</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="18">
         <f t="shared" si="5"/>
         <v>2349.720100625</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="18">
         <f t="shared" si="6"/>
         <v>26743.595100625</v>
       </c>
     </row>
     <row r="31" spans="3:7">
-      <c r="C31" s="19">
+      <c r="C31" s="18">
         <v>3</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="18">
         <v>0</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="18">
         <f t="shared" si="4"/>
         <v>1440</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="18">
         <f t="shared" si="5"/>
         <v>2432.46369237735</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="18">
         <f t="shared" si="6"/>
         <v>27736.0587930023</v>
       </c>
     </row>
     <row r="32" spans="3:7">
-      <c r="C32" s="19">
+      <c r="C32" s="18">
         <v>4</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="18">
         <v>0</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="18">
         <f t="shared" si="4"/>
         <v>1440</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="18">
         <f t="shared" si="5"/>
         <v>2522.73322751753</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="18">
         <f t="shared" si="6"/>
         <v>28818.7920205199</v>
       </c>
     </row>
     <row r="33" spans="3:7">
-      <c r="C33" s="19">
+      <c r="C33" s="18">
         <v>5</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="18">
         <v>0</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="18">
         <f>$E$25*$G$25+G25</f>
         <v>31440</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="18">
         <f t="shared" si="5"/>
         <v>2621.21322822639</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="18">
         <f t="shared" si="6"/>
         <v>0.00524874625989469</v>
       </c>
     </row>
     <row r="34" spans="3:7">
-      <c r="C34" s="19"/>
-      <c r="D34" s="19">
+      <c r="C34" s="18"/>
+      <c r="D34" s="18">
         <f t="shared" ref="D34:F34" si="7">SUM(D28:D33)</f>
         <v>25000</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="18">
         <f t="shared" si="7"/>
         <v>38640</v>
       </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9421,10 +9384,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E6:I29"/>
+  <dimension ref="E6:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9432,6 +9395,7 @@
     <col min="5" max="5" width="14.875" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="9.375"/>
     <col min="9" max="9" width="12.625"/>
   </cols>
   <sheetData>
@@ -9444,12 +9408,12 @@
       </c>
     </row>
     <row r="10" ht="15" spans="5:5">
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>28700075247.5</v>
       </c>
     </row>
     <row r="11" ht="15" spans="5:9">
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>6664077420.22</v>
       </c>
       <c r="G11" s="2">
@@ -9461,7 +9425,7 @@
       </c>
     </row>
     <row r="12" ht="15" spans="5:9">
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>13296286.27</v>
       </c>
       <c r="I12">
@@ -9470,12 +9434,12 @@
       </c>
     </row>
     <row r="13" ht="15" spans="5:5">
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <v>1184369466.72</v>
       </c>
     </row>
     <row r="14" ht="15" spans="5:7">
-      <c r="E14" s="16">
+      <c r="E14" s="14">
         <v>15136639784.35</v>
       </c>
       <c r="G14">
@@ -9483,7 +9447,7 @@
       </c>
     </row>
     <row r="15" ht="15" spans="5:7">
-      <c r="E15" s="16">
+      <c r="E15" s="14">
         <f>E10+E14-E11-E13-E12</f>
         <v>35974971858.64</v>
       </c>
@@ -9498,12 +9462,12 @@
       </c>
     </row>
     <row r="18" ht="15" spans="5:5">
-      <c r="E18" s="16">
+      <c r="E18" s="14">
         <v>35974971858.64</v>
       </c>
     </row>
     <row r="22" ht="15" spans="5:5">
-      <c r="E22" s="17">
+      <c r="E22" s="15">
         <v>103818</v>
       </c>
     </row>
@@ -9513,13 +9477,13 @@
       </c>
     </row>
     <row r="24" ht="15" spans="5:5">
-      <c r="E24" s="18">
+      <c r="E24" s="16">
         <f>E22*E23</f>
         <v>1038180000</v>
       </c>
     </row>
     <row r="25" ht="15" spans="5:5">
-      <c r="E25" s="18">
+      <c r="E25" s="16">
         <v>43.74</v>
       </c>
     </row>
@@ -9538,7 +9502,7 @@
         <f>E27/10</f>
         <v>4644817320</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="14">
         <v>4644817320</v>
       </c>
       <c r="I27">
@@ -9547,14 +9511,19 @@
       </c>
     </row>
     <row r="28" ht="15" spans="5:5">
-      <c r="E28" s="16">
+      <c r="E28" s="14">
         <v>4644817320</v>
       </c>
     </row>
     <row r="29" ht="15" spans="5:5">
-      <c r="E29" s="16">
+      <c r="E29" s="14">
         <v>31330154538.64</v>
       </c>
+    </row>
+    <row r="33" spans="6:8">
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9565,10 +9534,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B5:H41"/>
+  <dimension ref="B7:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -9582,423 +9551,280 @@
     <col min="9" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="5" s="11" customFormat="1" ht="17.25" spans="2:7">
-      <c r="B5" s="12">
-        <v>44285</v>
-      </c>
-      <c r="C5" s="13" t="s">
+    <row r="7" spans="6:6">
+      <c r="F7" s="11">
+        <v>0.842</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="E5" s="13">
-        <v>2730</v>
-      </c>
-      <c r="F5" s="14">
-        <v>65506</v>
-      </c>
-      <c r="G5" s="11">
-        <f t="shared" ref="G5:G8" si="0">F6-D5+E5</f>
-        <v>65506</v>
-      </c>
-    </row>
-    <row r="6" s="11" customFormat="1" ht="17.25" spans="2:7">
-      <c r="B6" s="12">
-        <v>44277</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="D6" s="13">
-        <v>1318.34</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14">
-        <v>62776</v>
-      </c>
-      <c r="G6" s="11">
+      <c r="E8" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C9" s="11">
+        <v>66000</v>
+      </c>
+      <c r="D9" s="11">
+        <v>72500</v>
+      </c>
+      <c r="E9" s="11">
+        <v>95.95</v>
+      </c>
+      <c r="F9" s="11">
+        <f>C9/E9/$F$7</f>
+        <v>816.933799893303</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" ref="G9:G14" si="0">F9/2</f>
+        <v>408.466899946652</v>
+      </c>
+      <c r="H9" s="11">
+        <f>D9/E9/$F$7</f>
+        <v>897.389401397947</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C10" s="11">
+        <v>3850</v>
+      </c>
+      <c r="D10" s="11">
+        <v>4700</v>
+      </c>
+      <c r="E10" s="11">
+        <v>15</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" ref="F10:F15" si="1">C10/E10</f>
+        <v>256.666666666667</v>
+      </c>
+      <c r="G10" s="11">
         <f t="shared" si="0"/>
-        <v>62776</v>
-      </c>
-    </row>
-    <row r="7" s="11" customFormat="1" ht="17.25" spans="2:7">
-      <c r="B7" s="12">
-        <v>44252</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0</v>
-      </c>
-      <c r="E7" s="13">
-        <v>2730</v>
-      </c>
-      <c r="F7" s="14">
-        <v>64094.34</v>
-      </c>
-      <c r="G7" s="11">
+        <v>128.333333333333</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" ref="H10:H15" si="2">D10/E10</f>
+        <v>313.333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="C11" s="11">
+        <v>770</v>
+      </c>
+      <c r="D11" s="11">
+        <v>900</v>
+      </c>
+      <c r="E11" s="11">
+        <v>5.04</v>
+      </c>
+      <c r="F11" s="11">
+        <f>C11/E11/$F$7</f>
+        <v>181.446291897598</v>
+      </c>
+      <c r="G11" s="11">
         <f t="shared" si="0"/>
-        <v>64094.34</v>
-      </c>
-    </row>
-    <row r="8" s="11" customFormat="1" ht="17.25" spans="2:7">
-      <c r="B8" s="12">
-        <v>44247</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="D8" s="13">
-        <v>1318.34</v>
-      </c>
-      <c r="E8" s="13">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14">
-        <v>61364.34</v>
-      </c>
-      <c r="G8" s="11">
+        <v>90.7231459487992</v>
+      </c>
+      <c r="H11" s="11">
+        <f>D11/E11/$F$7</f>
+        <v>212.080081438751</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1980</v>
+      </c>
+      <c r="E12" s="11">
+        <v>146</v>
+      </c>
+      <c r="G12" s="11">
+        <f>H12/2</f>
+        <v>6.78082191780822</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="2"/>
+        <v>13.5616438356164</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="C13" s="11">
+        <v>24000</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="E13" s="11">
+        <v>12.56</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="1"/>
+        <v>1910.82802547771</v>
+      </c>
+      <c r="G13" s="11">
         <f t="shared" si="0"/>
-        <v>61364.34</v>
-      </c>
-    </row>
-    <row r="9" s="11" customFormat="1" ht="17.25" spans="2:6">
-      <c r="B9" s="12">
-        <v>44225</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="D9" s="13">
-        <v>0</v>
-      </c>
-      <c r="E9" s="13">
-        <v>2730</v>
-      </c>
-      <c r="F9" s="14">
-        <v>62682.68</v>
-      </c>
-    </row>
-    <row r="10" s="11" customFormat="1" ht="17.25" spans="2:6">
-      <c r="B10" s="12">
-        <v>44216</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="D10" s="13">
-        <v>1318.34</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0</v>
-      </c>
-      <c r="F10" s="14">
-        <v>59952.68</v>
-      </c>
-    </row>
-    <row r="11" s="11" customFormat="1" ht="17.25" spans="2:6">
-      <c r="B11" s="12">
-        <v>44194</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0</v>
-      </c>
-      <c r="E11" s="13">
-        <v>2730</v>
-      </c>
-      <c r="F11" s="14">
-        <v>61271.02</v>
-      </c>
-    </row>
-    <row r="12" s="11" customFormat="1" ht="17.25" spans="2:6">
-      <c r="B12" s="12">
-        <v>44186</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="D12" s="13">
-        <v>1318.34</v>
-      </c>
-      <c r="E12" s="13">
-        <v>0</v>
-      </c>
-      <c r="F12" s="14">
-        <v>58541.02</v>
-      </c>
-    </row>
-    <row r="15" spans="6:6">
-      <c r="F15" s="11">
+        <v>955.414012738853</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="C14" s="11">
+        <v>4840</v>
+      </c>
+      <c r="D14" s="11">
+        <v>6960</v>
+      </c>
+      <c r="E14" s="11">
+        <v>93</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="1"/>
+        <v>52.0430107526882</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="0"/>
+        <v>26.0215053763441</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="2"/>
+        <v>74.8387096774194</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="D15" s="11">
+        <v>2000</v>
+      </c>
+      <c r="E15" s="11">
+        <v>100</v>
+      </c>
+      <c r="G15" s="11">
+        <f>H15/2</f>
+        <v>10</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="11">
+        <v>50131</v>
+      </c>
+      <c r="D19" s="11">
+        <v>620.5</v>
+      </c>
+      <c r="E19" s="11">
+        <f>C19/D19</f>
+        <v>80.7912973408541</v>
+      </c>
+      <c r="F19" s="11">
         <v>0.842</v>
       </c>
-    </row>
-    <row r="16" spans="3:8">
-      <c r="C16" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="C17" s="11">
-        <v>66000</v>
-      </c>
-      <c r="D17" s="11">
-        <v>72500</v>
-      </c>
-      <c r="E17" s="11">
+      <c r="G19" s="11">
+        <f>E19/F19</f>
+        <v>95.951659549708</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" s="11">
         <v>95.95</v>
       </c>
-      <c r="F17" s="11">
-        <f>C17/E17/$F$15</f>
-        <v>816.933799893303</v>
-      </c>
-      <c r="G17" s="11">
-        <f t="shared" ref="G17:G22" si="1">F17/2</f>
-        <v>408.466899946652</v>
-      </c>
-      <c r="H17" s="11">
-        <f>D17/E17/$F$15</f>
-        <v>897.389401397947</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="C18" s="11">
-        <v>3850</v>
-      </c>
-      <c r="D18" s="11">
-        <v>4700</v>
-      </c>
-      <c r="E18" s="11">
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="12">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="11">
+        <f>1+D24</f>
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="11">
+        <f>POWER(D25,D26)</f>
+        <v>2.0113571875</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="11">
         <v>15</v>
       </c>
-      <c r="F18" s="11">
-        <f t="shared" ref="F18:F23" si="2">C18/E18</f>
-        <v>256.666666666667</v>
-      </c>
-      <c r="G18" s="11">
-        <f t="shared" si="1"/>
-        <v>128.333333333333</v>
-      </c>
-      <c r="H18" s="11">
-        <f t="shared" ref="H18:H23" si="3">D18/E18</f>
-        <v>313.333333333333</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="C19" s="11">
-        <v>770</v>
-      </c>
-      <c r="D19" s="11">
-        <v>900</v>
-      </c>
-      <c r="E19" s="11">
-        <v>5.04</v>
-      </c>
-      <c r="F19" s="11">
-        <f>C19/E19/$F$15</f>
-        <v>181.446291897598</v>
-      </c>
-      <c r="G19" s="11">
-        <f t="shared" si="1"/>
-        <v>90.7231459487992</v>
-      </c>
-      <c r="H19" s="11">
-        <f>D19/E19/$F$15</f>
-        <v>212.080081438751</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="D20" s="11">
-        <v>1980</v>
-      </c>
-      <c r="E20" s="11">
-        <v>146</v>
-      </c>
-      <c r="G20" s="11">
-        <f>H20/2</f>
-        <v>6.78082191780822</v>
-      </c>
-      <c r="H20" s="11">
-        <f t="shared" si="3"/>
-        <v>13.5616438356164</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="C21" s="11">
-        <v>24000</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="E21" s="11">
-        <v>12.56</v>
-      </c>
-      <c r="F21" s="11">
-        <f t="shared" si="2"/>
-        <v>1910.82802547771</v>
-      </c>
-      <c r="G21" s="11">
-        <f t="shared" si="1"/>
-        <v>955.414012738853</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="C22" s="11">
-        <v>4840</v>
-      </c>
-      <c r="D22" s="11">
-        <v>6960</v>
-      </c>
-      <c r="E22" s="11">
-        <v>93</v>
-      </c>
-      <c r="F22" s="11">
-        <f t="shared" si="2"/>
-        <v>52.0430107526882</v>
-      </c>
-      <c r="G22" s="11">
-        <f t="shared" si="1"/>
-        <v>26.0215053763441</v>
-      </c>
-      <c r="H22" s="11">
-        <f t="shared" si="3"/>
-        <v>74.8387096774194</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="D23" s="11">
-        <v>2000</v>
-      </c>
-      <c r="E23" s="11">
-        <v>100</v>
-      </c>
-      <c r="G23" s="11">
-        <f>H23/2</f>
-        <v>10</v>
-      </c>
-      <c r="H23" s="11">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7">
-      <c r="C27" s="11">
-        <v>50131</v>
-      </c>
-      <c r="D27" s="11">
-        <v>620.5</v>
-      </c>
-      <c r="E27" s="11">
-        <f>C27/D27</f>
-        <v>80.7912973408541</v>
-      </c>
-      <c r="F27" s="11">
-        <v>0.842</v>
-      </c>
-      <c r="G27" s="11">
-        <f>E27/F27</f>
-        <v>95.951659549708</v>
-      </c>
-    </row>
-    <row r="28" spans="7:7">
-      <c r="G28" s="11">
-        <v>95.95</v>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="11">
+        <f>D28/D29</f>
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="11">
+        <f>D30*D27</f>
+        <v>3.7712947265625</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="15">
-        <v>0.15</v>
+      <c r="D32" s="11">
+        <f>POWER(D31,1/D26)</f>
+        <v>1.30406156427798</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="11">
-        <f>1+D32</f>
-        <v>1.15</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4">
-      <c r="D34" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4">
-      <c r="D35" s="11">
-        <f>POWER(D33,D34)</f>
-        <v>2.0113571875</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4">
-      <c r="D36" s="11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4">
-      <c r="D37" s="11">
-        <v>8</v>
+      <c r="D33" s="12">
+        <f>D32-1</f>
+        <v>0.304061564277981</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="11">
-        <f>D36/D37</f>
-        <v>1.875</v>
-      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" spans="4:4">
-      <c r="D39" s="11">
-        <f>D38*D35</f>
-        <v>3.7712947265625</v>
-      </c>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" spans="4:4">
-      <c r="D40" s="11">
-        <f>POWER(D39,1/D34)</f>
-        <v>1.30406156427798</v>
-      </c>
-    </row>
-    <row r="41" spans="4:4">
-      <c r="D41" s="15">
-        <f>D40-1</f>
-        <v>0.304061564277981</v>
-      </c>
+      <c r="D40" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10030,114 +9856,114 @@
   <sheetData>
     <row r="2" spans="3:6">
       <c r="C2" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" ht="33" spans="3:5">
       <c r="C6" s="4" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" s="6" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" ht="33" spans="3:5">
       <c r="C8" s="5" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" ht="33" spans="3:5">
       <c r="C9" s="5" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="7:10">
       <c r="G11" s="4"/>
       <c r="H11" s="8" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" ht="33" spans="7:10">
       <c r="G12" s="9" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="7:10">
       <c r="G13" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>443</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="14" ht="33" spans="7:10">
       <c r="G14" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>449</v>
-      </c>
       <c r="I14" s="5" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
